--- a/output_reports/Формирователи_01.01-01.02.xlsx
+++ b/output_reports/Формирователи_01.01-01.02.xlsx
@@ -56,12 +56,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
+        <fgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCC"/>
+        <fgColor rgb="00CCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -219,7 +219,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -257,29 +257,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V342"/>
+  <dimension ref="A1:V341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
@@ -1230,19 +1231,19 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>0</v>
@@ -1262,9 +1263,7 @@
       <c r="S11" s="5" t="inlineStr"/>
       <c r="T11" s="6" t="n"/>
       <c r="U11" s="6" t="n"/>
-      <c r="V11" s="4" t="n">
-        <v>3</v>
-      </c>
+      <c r="V11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -1536,19 +1535,19 @@
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N15" s="4" t="n">
         <v>0</v>
@@ -1688,19 +1687,19 @@
         </is>
       </c>
       <c r="I17" s="4" t="n">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="4" t="n">
         <v>0</v>
@@ -1720,9 +1719,7 @@
       <c r="S17" s="5" t="inlineStr"/>
       <c r="T17" s="6" t="n"/>
       <c r="U17" s="6" t="n"/>
-      <c r="V17" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="V17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -3186,13 +3183,13 @@
         </is>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1353</v>
+        <v>1442</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1037</v>
+        <v>1127</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>0</v>
@@ -3204,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>78</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>0</v>
@@ -3219,7 +3216,7 @@
       <c r="T38" s="6" t="n"/>
       <c r="U38" s="6" t="n"/>
       <c r="V38" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3264,13 +3261,13 @@
         </is>
       </c>
       <c r="I39" s="4" t="n">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="J39" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
@@ -3498,7 +3495,7 @@
         <v>21</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
@@ -3510,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>40</v>
@@ -3798,10 +3795,10 @@
         </is>
       </c>
       <c r="I46" s="4" t="n">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>558</v>
@@ -3816,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>39</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R46" s="4" t="n">
         <v>0</v>
@@ -3830,9 +3827,7 @@
       <c r="S46" s="5" t="inlineStr"/>
       <c r="T46" s="6" t="n"/>
       <c r="U46" s="6" t="n"/>
-      <c r="V46" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="V46" s="4" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
@@ -3952,10 +3947,10 @@
         </is>
       </c>
       <c r="I48" s="4" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>549</v>
@@ -3970,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>58</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R48" s="4" t="n">
         <v>0</v>
@@ -3984,9 +3979,7 @@
       <c r="S48" s="5" t="inlineStr"/>
       <c r="T48" s="6" t="n"/>
       <c r="U48" s="6" t="n"/>
-      <c r="V48" s="4" t="n">
-        <v>3</v>
-      </c>
+      <c r="V48" s="4" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -4282,13 +4275,13 @@
         </is>
       </c>
       <c r="I53" s="4" t="n">
-        <v>332</v>
+        <v>408</v>
       </c>
       <c r="J53" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K53" s="4" t="n">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="L53" s="4" t="n">
         <v>5</v>
@@ -4358,13 +4351,13 @@
         </is>
       </c>
       <c r="I54" s="4" t="n">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="J54" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -4463,12 +4456,10 @@
       <c r="R55" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S55" s="5" t="inlineStr">
-        <is>
-          <t>02-03.02</t>
-        </is>
-      </c>
-      <c r="T55" s="6" t="n"/>
+      <c r="S55" s="5" t="inlineStr"/>
+      <c r="T55" s="6" t="n">
+        <v>1263</v>
+      </c>
       <c r="U55" s="6" t="n"/>
       <c r="V55" s="4" t="n"/>
     </row>
@@ -4999,12 +4990,10 @@
       <c r="R62" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S62" s="5" t="inlineStr">
-        <is>
-          <t>31.01-01.02</t>
-        </is>
-      </c>
-      <c r="T62" s="6" t="n"/>
+      <c r="S62" s="5" t="inlineStr"/>
+      <c r="T62" s="6" t="n">
+        <v>766</v>
+      </c>
       <c r="U62" s="6" t="n"/>
       <c r="V62" s="4" t="n">
         <v>1</v>
@@ -5128,10 +5117,10 @@
         </is>
       </c>
       <c r="I64" s="4" t="n">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J64" s="14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K64" s="4" t="n">
         <v>711</v>
@@ -5146,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>43</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R64" s="4" t="n">
         <v>0</v>
@@ -5432,10 +5421,10 @@
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J68" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="4" t="n">
         <v>127</v>
@@ -5453,13 +5442,13 @@
         <v>0</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" s="5" t="inlineStr"/>
       <c r="T68" s="6" t="n"/>
@@ -5508,10 +5497,10 @@
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="J69" s="14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K69" s="4" t="n">
         <v>612</v>
@@ -5526,13 +5515,13 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>16</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R69" s="4" t="n">
         <v>0</v>
@@ -5817,7 +5806,7 @@
           <t>3.5/4.0</t>
         </is>
       </c>
-      <c r="E74" s="19" t="inlineStr">
+      <c r="E74" s="9" t="inlineStr">
         <is>
           <t>33072 Формирователь десны LM (копия оригинала) Astra Tech 3.5/4.0 D=5.5 H=6 (арт. 24579) V.1</t>
         </is>
@@ -5838,31 +5827,31 @@
         </is>
       </c>
       <c r="I74" s="11" t="n">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="J74" s="12" t="n">
-        <v>48</v>
-      </c>
-      <c r="K74" s="20" t="n">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="K74" s="4" t="n">
+        <v>142</v>
       </c>
       <c r="L74" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M74" s="20" t="n">
+      <c r="M74" s="4" t="n">
         <v>28</v>
       </c>
       <c r="N74" s="4" t="n">
         <v>15</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>12</v>
       </c>
       <c r="Q74" s="4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="R74" s="4" t="n">
         <v>0</v>
@@ -5870,9 +5859,7 @@
       <c r="S74" s="5" t="inlineStr"/>
       <c r="T74" s="6" t="n"/>
       <c r="U74" s="6" t="n"/>
-      <c r="V74" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="V74" s="4" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
@@ -5916,13 +5903,13 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="J75" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K75" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
         <v>0</v>
@@ -5992,13 +5979,13 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>337</v>
+        <v>472</v>
       </c>
       <c r="J76" s="14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K76" s="4" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="L76" s="4" t="n">
         <v>0</v>
@@ -6010,13 +5997,13 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>40</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R76" s="4" t="n">
         <v>0</v>
@@ -6024,9 +6011,7 @@
       <c r="S76" s="5" t="inlineStr"/>
       <c r="T76" s="6" t="n"/>
       <c r="U76" s="6" t="n"/>
-      <c r="V76" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V76" s="4" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
@@ -6070,13 +6055,13 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="J77" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="4" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="L77" s="4" t="n">
         <v>0</v>
@@ -6146,10 +6131,10 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1879</v>
+        <v>1867</v>
       </c>
       <c r="J78" s="14" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K78" s="4" t="n">
         <v>1811</v>
@@ -6164,13 +6149,13 @@
         <v>7</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R78" s="4" t="n">
         <v>0</v>
@@ -6298,13 +6283,13 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="J80" s="14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K80" s="4" t="n">
-        <v>1239</v>
+        <v>1214</v>
       </c>
       <c r="L80" s="4" t="n">
         <v>7</v>
@@ -6316,13 +6301,13 @@
         <v>15</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R80" s="4" t="n">
         <v>0</v>
@@ -6330,9 +6315,7 @@
       <c r="S80" s="5" t="inlineStr"/>
       <c r="T80" s="6" t="n"/>
       <c r="U80" s="6" t="n"/>
-      <c r="V80" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="V80" s="4" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
@@ -6528,10 +6511,10 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J83" s="14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K83" s="4" t="n">
         <v>137</v>
@@ -6546,13 +6529,13 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>30</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R83" s="4" t="n">
         <v>0</v>
@@ -6560,9 +6543,7 @@
       <c r="S83" s="5" t="inlineStr"/>
       <c r="T83" s="6" t="n"/>
       <c r="U83" s="6" t="n"/>
-      <c r="V83" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V83" s="4" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
@@ -6635,12 +6616,10 @@
       <c r="R84" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S84" s="5" t="inlineStr">
-        <is>
-          <t>02-03.02</t>
-        </is>
-      </c>
-      <c r="T84" s="6" t="n"/>
+      <c r="S84" s="5" t="inlineStr"/>
+      <c r="T84" s="6" t="n">
+        <v>1756</v>
+      </c>
       <c r="U84" s="6" t="n"/>
       <c r="V84" s="4" t="n"/>
     </row>
@@ -7142,10 +7121,10 @@
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J91" s="14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K91" s="4" t="n">
         <v>19</v>
@@ -7160,13 +7139,13 @@
         <v>4</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>13</v>
       </c>
       <c r="Q91" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R91" s="4" t="n">
         <v>2</v>
@@ -7218,31 +7197,31 @@
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="J92" s="14" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K92" s="4" t="n">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="L92" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M92" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N92" s="4" t="n">
         <v>4</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>43</v>
       </c>
       <c r="Q92" s="4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="R92" s="4" t="n">
         <v>0</v>
@@ -7250,9 +7229,7 @@
       <c r="S92" s="5" t="inlineStr"/>
       <c r="T92" s="6" t="n"/>
       <c r="U92" s="6" t="n"/>
-      <c r="V92" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="V92" s="4" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
@@ -7372,13 +7349,13 @@
         </is>
       </c>
       <c r="I94" s="17" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J94" s="18" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K94" s="4" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="L94" s="4" t="n">
         <v>0</v>
@@ -7390,13 +7367,13 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>23</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R94" s="4" t="n">
         <v>0</v>
@@ -7404,9 +7381,7 @@
       <c r="S94" s="5" t="inlineStr"/>
       <c r="T94" s="6" t="n"/>
       <c r="U94" s="6" t="n"/>
-      <c r="V94" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="V94" s="4" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="7" t="n"/>
@@ -7609,7 +7584,7 @@
           <t>3.25/3.75</t>
         </is>
       </c>
-      <c r="E98" s="21" t="inlineStr">
+      <c r="E98" s="19" t="inlineStr">
         <is>
           <t>33042 Формирователь десны LM (копия оригинала) Bego Semados 3.25/3.75 D=4.5 H=3 (арт. 57807) V.1</t>
         </is>
@@ -7629,10 +7604,10 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I98" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" s="23" t="n">
+      <c r="I98" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="21" t="n">
         <v>2</v>
       </c>
       <c r="K98" s="4" t="n">
@@ -8988,13 +8963,13 @@
         </is>
       </c>
       <c r="I117" s="4" t="n">
-        <v>344</v>
+        <v>254</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="L117" s="4" t="n">
         <v>1</v>
@@ -9006,23 +8981,21 @@
         <v>0</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q117" s="4" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S117" s="5" t="inlineStr"/>
       <c r="T117" s="6" t="n"/>
       <c r="U117" s="6" t="n"/>
-      <c r="V117" s="4" t="n">
-        <v>40</v>
-      </c>
+      <c r="V117" s="4" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
@@ -9045,7 +9018,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E118" s="24" t="inlineStr">
+      <c r="E118" s="22" t="inlineStr">
         <is>
           <t>33055П Формирователь десны LM (копия оригинала) Implantium D=4 G/H=2 H=2 (арт. HAB402020L) ПОЛИР. V.1.P</t>
         </is>
@@ -9065,10 +9038,10 @@
           <t>Версия 1.P</t>
         </is>
       </c>
-      <c r="I118" s="25" t="n">
+      <c r="I118" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="J118" s="25" t="n">
+      <c r="J118" s="23" t="n">
         <v>20</v>
       </c>
       <c r="K118" s="4" t="n">
@@ -9144,13 +9117,13 @@
         </is>
       </c>
       <c r="I119" s="4" t="n">
-        <v>828</v>
+        <v>890</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="K119" s="4" t="n">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="L119" s="4" t="n">
         <v>0</v>
@@ -9162,23 +9135,21 @@
         <v>0</v>
       </c>
       <c r="O119" s="4" t="n">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="P119" s="4" t="n">
         <v>12</v>
       </c>
       <c r="Q119" s="4" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="R119" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S119" s="5" t="inlineStr"/>
       <c r="T119" s="6" t="n"/>
       <c r="U119" s="6" t="n"/>
-      <c r="V119" s="4" t="n">
-        <v>20</v>
-      </c>
+      <c r="V119" s="4" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
@@ -9222,13 +9193,13 @@
         </is>
       </c>
       <c r="I120" s="4" t="n">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K120" s="4" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L120" s="4" t="n">
         <v>0</v>
@@ -9243,13 +9214,13 @@
         <v>0</v>
       </c>
       <c r="P120" s="4" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q120" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R120" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S120" s="5" t="inlineStr"/>
       <c r="T120" s="6" t="n"/>
@@ -9279,7 +9250,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E121" s="3" t="inlineStr">
+      <c r="E121" s="22" t="inlineStr">
         <is>
           <t>33057 Формирователь десны LM (копия оригинала) Implantium D=4.5 G/H=2 H=3.5 (арт. HAB452035L) V.1</t>
         </is>
@@ -9299,42 +9270,42 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I121" s="4" t="n">
-        <v>317</v>
-      </c>
-      <c r="J121" s="4" t="n">
-        <v>129</v>
+      <c r="I121" s="23" t="n">
+        <v>197</v>
+      </c>
+      <c r="J121" s="23" t="n">
+        <v>209</v>
       </c>
       <c r="K121" s="4" t="n">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="L121" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M121" s="4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N121" s="4" t="n">
         <v>47</v>
       </c>
       <c r="O121" s="4" t="n">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="P121" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q121" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="R121" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="Q121" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="R121" s="4" t="n">
-        <v>21</v>
-      </c>
       <c r="S121" s="5" t="inlineStr"/>
-      <c r="T121" s="6" t="n"/>
+      <c r="T121" s="6" t="n">
+        <v>92</v>
+      </c>
       <c r="U121" s="6" t="n"/>
-      <c r="V121" s="4" t="n">
-        <v>20</v>
-      </c>
+      <c r="V121" s="4" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
@@ -9456,34 +9427,34 @@
         </is>
       </c>
       <c r="I123" s="4" t="n">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K123" s="4" t="n">
-        <v>367</v>
+        <v>432</v>
       </c>
       <c r="L123" s="4" t="n">
         <v>5</v>
       </c>
       <c r="M123" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N123" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O123" s="4" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="P123" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q123" s="4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R123" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S123" s="5" t="inlineStr"/>
       <c r="T123" s="6" t="n"/>
@@ -9532,13 +9503,13 @@
         </is>
       </c>
       <c r="I124" s="4" t="n">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="J124" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K124" s="4" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L124" s="4" t="n">
         <v>0</v>
@@ -9553,13 +9524,13 @@
         <v>0</v>
       </c>
       <c r="P124" s="4" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q124" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R124" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S124" s="5" t="inlineStr"/>
       <c r="T124" s="6" t="n"/>
@@ -9610,40 +9581,40 @@
         </is>
       </c>
       <c r="I125" s="4" t="n">
-        <v>1454</v>
+        <v>1287</v>
       </c>
       <c r="J125" s="4" t="n">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="K125" s="4" t="n">
-        <v>992</v>
+        <v>771</v>
       </c>
       <c r="L125" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M125" s="4" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N125" s="4" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O125" s="4" t="n">
-        <v>426</v>
+        <v>491</v>
       </c>
       <c r="P125" s="4" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q125" s="4" t="n">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="R125" s="4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="S125" s="5" t="inlineStr"/>
       <c r="T125" s="6" t="n"/>
       <c r="U125" s="6" t="n"/>
       <c r="V125" s="4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
@@ -9764,13 +9735,13 @@
         </is>
       </c>
       <c r="I127" s="4" t="n">
-        <v>161</v>
+        <v>1062</v>
       </c>
       <c r="J127" s="4" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K127" s="4" t="n">
-        <v>9</v>
+        <v>916</v>
       </c>
       <c r="L127" s="4" t="n">
         <v>0</v>
@@ -9779,27 +9750,25 @@
         <v>0</v>
       </c>
       <c r="N127" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O127" s="4" t="n">
         <v>123</v>
       </c>
       <c r="P127" s="4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q127" s="4" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="R127" s="4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="S127" s="5" t="inlineStr"/>
-      <c r="T127" s="6" t="n">
-        <v>974</v>
-      </c>
+      <c r="T127" s="6" t="n"/>
       <c r="U127" s="6" t="n"/>
       <c r="V127" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
@@ -9844,34 +9813,34 @@
         </is>
       </c>
       <c r="I128" s="4" t="n">
-        <v>1023</v>
+        <v>881</v>
       </c>
       <c r="J128" s="4" t="n">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="K128" s="4" t="n">
-        <v>482</v>
+        <v>378</v>
       </c>
       <c r="L128" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M128" s="4" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="N128" s="4" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O128" s="4" t="n">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="P128" s="4" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Q128" s="4" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="R128" s="4" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="S128" s="5" t="inlineStr"/>
       <c r="T128" s="6" t="n"/>
@@ -9922,40 +9891,40 @@
         </is>
       </c>
       <c r="I129" s="4" t="n">
-        <v>1028</v>
+        <v>981</v>
       </c>
       <c r="J129" s="4" t="n">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K129" s="4" t="n">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="L129" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M129" s="4" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N129" s="4" t="n">
         <v>10</v>
       </c>
       <c r="O129" s="4" t="n">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="P129" s="4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q129" s="4" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="R129" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S129" s="5" t="inlineStr"/>
       <c r="T129" s="6" t="n"/>
       <c r="U129" s="6" t="n"/>
       <c r="V129" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130">
@@ -9979,7 +9948,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E130" s="24" t="inlineStr">
+      <c r="E130" s="22" t="inlineStr">
         <is>
           <t>33101П Формирователь десны LM (копия оригинала) Implantium D=6.5 G/H=2 H=3.5 (арт. HAB652035L) ПОЛИР. V.1.P</t>
         </is>
@@ -9999,10 +9968,10 @@
           <t>Версия 1.P</t>
         </is>
       </c>
-      <c r="I130" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" s="25" t="n">
+      <c r="I130" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" s="23" t="n">
         <v>5</v>
       </c>
       <c r="K130" s="4" t="n">
@@ -10078,42 +10047,40 @@
         </is>
       </c>
       <c r="I131" s="4" t="n">
-        <v>908</v>
+        <v>1451</v>
       </c>
       <c r="J131" s="4" t="n">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="K131" s="4" t="n">
-        <v>639</v>
+        <v>1129</v>
       </c>
       <c r="L131" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M131" s="4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N131" s="4" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O131" s="4" t="n">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="P131" s="4" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="Q131" s="4" t="n">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="R131" s="4" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="S131" s="5" t="inlineStr"/>
-      <c r="T131" s="6" t="n">
-        <v>642</v>
-      </c>
+      <c r="T131" s="6" t="n"/>
       <c r="U131" s="6" t="n"/>
       <c r="V131" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
@@ -10158,41 +10125,39 @@
         </is>
       </c>
       <c r="I132" s="4" t="n">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="J132" s="4" t="n">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="K132" s="4" t="n">
-        <v>1032</v>
+        <v>1003</v>
       </c>
       <c r="L132" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M132" s="4" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N132" s="4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="O132" s="4" t="n">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="P132" s="4" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="Q132" s="4" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="R132" s="4" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="S132" s="5" t="inlineStr"/>
       <c r="T132" s="6" t="n"/>
       <c r="U132" s="6" t="n"/>
-      <c r="V132" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="V132" s="4" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
@@ -10236,42 +10201,42 @@
         </is>
       </c>
       <c r="I133" s="4" t="n">
-        <v>350</v>
+        <v>1189</v>
       </c>
       <c r="J133" s="4" t="n">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="K133" s="4" t="n">
-        <v>126</v>
+        <v>977</v>
       </c>
       <c r="L133" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M133" s="4" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N133" s="4" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="O133" s="4" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Q133" s="4" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="R133" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S133" s="5" t="inlineStr"/>
       <c r="T133" s="6" t="n">
-        <v>1050</v>
+        <v>1</v>
       </c>
       <c r="U133" s="6" t="n"/>
       <c r="V133" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
@@ -10392,39 +10357,41 @@
         </is>
       </c>
       <c r="I135" s="4" t="n">
-        <v>1906</v>
+        <v>1857</v>
       </c>
       <c r="J135" s="4" t="n">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="K135" s="4" t="n">
-        <v>1770</v>
+        <v>1659</v>
       </c>
       <c r="L135" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M135" s="4" t="n">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="N135" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="Q135" s="4" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="R135" s="4" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S135" s="5" t="inlineStr"/>
       <c r="T135" s="6" t="n"/>
       <c r="U135" s="6" t="n"/>
-      <c r="V135" s="4" t="n"/>
+      <c r="V135" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
@@ -10523,7 +10490,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
+      <c r="E137" s="24" t="inlineStr">
         <is>
           <t>33193 Формирователь десны LM (копия оригинала) Implantium D=5.5 G/H=4 H=7 (арт. HAB554070L) V.1</t>
         </is>
@@ -10544,40 +10511,44 @@
         </is>
       </c>
       <c r="I137" s="4" t="n">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>141</v>
-      </c>
-      <c r="K137" s="4" t="n">
-        <v>133</v>
+        <v>229</v>
+      </c>
+      <c r="K137" s="25" t="n">
+        <v>66</v>
       </c>
       <c r="L137" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M137" s="4" t="n">
-        <v>20</v>
+      <c r="M137" s="25" t="n">
+        <v>65</v>
       </c>
       <c r="N137" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="O137" s="4" t="n">
+        <v>254</v>
+      </c>
+      <c r="P137" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q137" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="O137" s="4" t="n">
-        <v>269</v>
-      </c>
-      <c r="P137" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q137" s="4" t="n">
-        <v>41</v>
-      </c>
       <c r="R137" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S137" s="5" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="S137" s="5" t="inlineStr">
+        <is>
+          <t>07-08.02</t>
+        </is>
+      </c>
       <c r="T137" s="6" t="n"/>
       <c r="U137" s="6" t="n"/>
       <c r="V137" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -10698,10 +10669,10 @@
         </is>
       </c>
       <c r="I139" s="4" t="n">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="J139" s="4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K139" s="4" t="n">
         <v>350</v>
@@ -10716,21 +10687,23 @@
         <v>0</v>
       </c>
       <c r="O139" s="4" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="P139" s="4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q139" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R139" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S139" s="5" t="inlineStr"/>
       <c r="T139" s="6" t="n"/>
       <c r="U139" s="6" t="n"/>
-      <c r="V139" s="4" t="n"/>
+      <c r="V139" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
@@ -10774,39 +10747,41 @@
         </is>
       </c>
       <c r="I140" s="4" t="n">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="J140" s="4" t="n">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="K140" s="4" t="n">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="L140" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M140" s="4" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N140" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O140" s="4" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P140" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q140" s="4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="R140" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S140" s="5" t="inlineStr"/>
       <c r="T140" s="6" t="n"/>
       <c r="U140" s="6" t="n"/>
-      <c r="V140" s="4" t="n"/>
+      <c r="V140" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
@@ -10850,40 +10825,40 @@
         </is>
       </c>
       <c r="I141" s="4" t="n">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="J141" s="4" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K141" s="4" t="n">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="L141" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M141" s="4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N141" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O141" s="4" t="n">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="P141" s="4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q141" s="4" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="R141" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S141" s="5" t="inlineStr"/>
       <c r="T141" s="6" t="n"/>
       <c r="U141" s="6" t="n"/>
       <c r="V141" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -10928,13 +10903,13 @@
         </is>
       </c>
       <c r="I142" s="4" t="n">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="J142" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K142" s="4" t="n">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="L142" s="4" t="n">
         <v>0</v>
@@ -10946,13 +10921,13 @@
         <v>0</v>
       </c>
       <c r="O142" s="4" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P142" s="4" t="n">
         <v>10</v>
       </c>
       <c r="Q142" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R142" s="4" t="n">
         <v>0</v>
@@ -11004,13 +10979,13 @@
         </is>
       </c>
       <c r="I143" s="4" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="J143" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K143" s="4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L143" s="4" t="n">
         <v>0</v>
@@ -11025,13 +11000,13 @@
         <v>0</v>
       </c>
       <c r="P143" s="4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q143" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R143" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S143" s="5" t="inlineStr"/>
       <c r="T143" s="6" t="n"/>
@@ -11180,19 +11155,19 @@
         </is>
       </c>
       <c r="I146" s="4" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J146" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K146" s="4" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L146" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M146" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N146" s="4" t="n">
         <v>0</v>
@@ -11332,10 +11307,10 @@
         </is>
       </c>
       <c r="I148" s="4" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J148" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K148" s="4" t="n">
         <v>259</v>
@@ -11350,13 +11325,13 @@
         <v>0</v>
       </c>
       <c r="O148" s="4" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P148" s="4" t="n">
         <v>37</v>
       </c>
       <c r="Q148" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R148" s="4" t="n">
         <v>0</v>
@@ -11408,7 +11383,7 @@
         </is>
       </c>
       <c r="I149" s="4" t="n">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="J149" s="4" t="n">
         <v>5</v>
@@ -11429,7 +11404,7 @@
         <v>69</v>
       </c>
       <c r="P149" s="4" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="Q149" s="4" t="n">
         <v>0</v>
@@ -11484,13 +11459,13 @@
         </is>
       </c>
       <c r="I150" s="4" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J150" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K150" s="4" t="n">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="L150" s="4" t="n">
         <v>0</v>
@@ -11502,13 +11477,13 @@
         <v>0</v>
       </c>
       <c r="O150" s="4" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="P150" s="4" t="n">
         <v>20</v>
       </c>
       <c r="Q150" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R150" s="4" t="n">
         <v>5</v>
@@ -11560,10 +11535,10 @@
         </is>
       </c>
       <c r="I151" s="4" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J151" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K151" s="4" t="n">
         <v>230</v>
@@ -11578,13 +11553,13 @@
         <v>0</v>
       </c>
       <c r="O151" s="4" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P151" s="4" t="n">
         <v>48</v>
       </c>
       <c r="Q151" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R151" s="4" t="n">
         <v>0</v>
@@ -11636,10 +11611,10 @@
         </is>
       </c>
       <c r="I152" s="4" t="n">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J152" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K152" s="4" t="n">
         <v>577</v>
@@ -11654,13 +11629,13 @@
         <v>0</v>
       </c>
       <c r="O152" s="4" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P152" s="4" t="n">
         <v>38</v>
       </c>
       <c r="Q152" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R152" s="4" t="n">
         <v>0</v>
@@ -11712,19 +11687,19 @@
         </is>
       </c>
       <c r="I153" s="4" t="n">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J153" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K153" s="4" t="n">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L153" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M153" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N153" s="4" t="n">
         <v>0</v>
@@ -11788,13 +11763,13 @@
         </is>
       </c>
       <c r="I154" s="4" t="n">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="J154" s="4" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K154" s="4" t="n">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="L154" s="4" t="n">
         <v>0</v>
@@ -11806,13 +11781,13 @@
         <v>0</v>
       </c>
       <c r="O154" s="4" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="P154" s="4" t="n">
         <v>40</v>
       </c>
       <c r="Q154" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R154" s="4" t="n">
         <v>0</v>
@@ -11820,9 +11795,7 @@
       <c r="S154" s="5" t="inlineStr"/>
       <c r="T154" s="6" t="n"/>
       <c r="U154" s="6" t="n"/>
-      <c r="V154" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V154" s="4" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
@@ -11866,13 +11839,13 @@
         </is>
       </c>
       <c r="I155" s="4" t="n">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J155" s="4" t="n">
         <v>29</v>
       </c>
       <c r="K155" s="4" t="n">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="L155" s="4" t="n">
         <v>0</v>
@@ -11884,10 +11857,10 @@
         <v>0</v>
       </c>
       <c r="O155" s="4" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P155" s="4" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="Q155" s="4" t="n">
         <v>5</v>
@@ -11942,31 +11915,31 @@
         </is>
       </c>
       <c r="I156" s="4" t="n">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="J156" s="4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K156" s="4" t="n">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="L156" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M156" s="4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N156" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O156" s="4" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P156" s="4" t="n">
         <v>35</v>
       </c>
       <c r="Q156" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R156" s="4" t="n">
         <v>0</v>
@@ -12018,10 +11991,10 @@
         </is>
       </c>
       <c r="I157" s="4" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J157" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K157" s="4" t="n">
         <v>279</v>
@@ -12036,13 +12009,13 @@
         <v>0</v>
       </c>
       <c r="O157" s="4" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P157" s="4" t="n">
         <v>42</v>
       </c>
       <c r="Q157" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R157" s="4" t="n">
         <v>0</v>
@@ -12094,31 +12067,31 @@
         </is>
       </c>
       <c r="I158" s="4" t="n">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="J158" s="4" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K158" s="4" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L158" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M158" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N158" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O158" s="4" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P158" s="4" t="n">
         <v>33</v>
       </c>
       <c r="Q158" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R158" s="4" t="n">
         <v>0</v>
@@ -12126,9 +12099,7 @@
       <c r="S158" s="5" t="inlineStr"/>
       <c r="T158" s="6" t="n"/>
       <c r="U158" s="6" t="n"/>
-      <c r="V158" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="V158" s="4" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
@@ -12172,10 +12143,10 @@
         </is>
       </c>
       <c r="I159" s="4" t="n">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="J159" s="4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K159" s="4" t="n">
         <v>409</v>
@@ -12190,13 +12161,13 @@
         <v>0</v>
       </c>
       <c r="O159" s="4" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P159" s="4" t="n">
         <v>38</v>
       </c>
       <c r="Q159" s="4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R159" s="4" t="n">
         <v>0</v>
@@ -12248,10 +12219,10 @@
         </is>
       </c>
       <c r="I160" s="4" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J160" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K160" s="4" t="n">
         <v>292</v>
@@ -12266,13 +12237,13 @@
         <v>0</v>
       </c>
       <c r="O160" s="4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P160" s="4" t="n">
         <v>32</v>
       </c>
       <c r="Q160" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R160" s="4" t="n">
         <v>0</v>
@@ -12324,13 +12295,13 @@
         </is>
       </c>
       <c r="I161" s="4" t="n">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="J161" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K161" s="4" t="n">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="L161" s="4" t="n">
         <v>0</v>
@@ -12342,13 +12313,13 @@
         <v>0</v>
       </c>
       <c r="O161" s="4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P161" s="4" t="n">
         <v>49</v>
       </c>
       <c r="Q161" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R161" s="4" t="n">
         <v>0</v>
@@ -12356,9 +12327,7 @@
       <c r="S161" s="5" t="inlineStr"/>
       <c r="T161" s="6" t="n"/>
       <c r="U161" s="6" t="n"/>
-      <c r="V161" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V161" s="4" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
@@ -12402,13 +12371,13 @@
         </is>
       </c>
       <c r="I162" s="4" t="n">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="J162" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K162" s="4" t="n">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="L162" s="4" t="n">
         <v>0</v>
@@ -12420,13 +12389,13 @@
         <v>0</v>
       </c>
       <c r="O162" s="4" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="P162" s="4" t="n">
         <v>31</v>
       </c>
       <c r="Q162" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R162" s="4" t="n">
         <v>0</v>
@@ -12478,10 +12447,10 @@
         </is>
       </c>
       <c r="I163" s="4" t="n">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="J163" s="4" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K163" s="4" t="n">
         <v>455</v>
@@ -12496,13 +12465,13 @@
         <v>0</v>
       </c>
       <c r="O163" s="4" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="P163" s="4" t="n">
         <v>45</v>
       </c>
       <c r="Q163" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R163" s="4" t="n">
         <v>0</v>
@@ -12510,9 +12479,7 @@
       <c r="S163" s="5" t="inlineStr"/>
       <c r="T163" s="6" t="n"/>
       <c r="U163" s="6" t="n"/>
-      <c r="V163" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="V163" s="4" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
@@ -12556,13 +12523,13 @@
         </is>
       </c>
       <c r="I164" s="4" t="n">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="J164" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K164" s="4" t="n">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="L164" s="4" t="n">
         <v>0</v>
@@ -12574,13 +12541,13 @@
         <v>0</v>
       </c>
       <c r="O164" s="4" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="P164" s="4" t="n">
         <v>43</v>
       </c>
       <c r="Q164" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R164" s="4" t="n">
         <v>0</v>
@@ -12588,9 +12555,7 @@
       <c r="S164" s="5" t="inlineStr"/>
       <c r="T164" s="6" t="n"/>
       <c r="U164" s="6" t="n"/>
-      <c r="V164" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V164" s="4" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="7" t="n"/>
@@ -12658,31 +12623,31 @@
         </is>
       </c>
       <c r="I166" s="4" t="n">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="J166" s="4" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="K166" s="4" t="n">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="L166" s="4" t="n">
         <v>17</v>
       </c>
       <c r="M166" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N166" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O166" s="4" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P166" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q166" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R166" s="4" t="n">
         <v>0</v>
@@ -12736,13 +12701,13 @@
         </is>
       </c>
       <c r="I167" s="4" t="n">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="J167" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K167" s="4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L167" s="4" t="n">
         <v>0</v>
@@ -12754,13 +12719,13 @@
         <v>0</v>
       </c>
       <c r="O167" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P167" s="4" t="n">
         <v>43</v>
       </c>
       <c r="Q167" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R167" s="4" t="n">
         <v>0</v>
@@ -12812,13 +12777,13 @@
         </is>
       </c>
       <c r="I168" s="4" t="n">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="J168" s="4" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K168" s="4" t="n">
-        <v>486</v>
+        <v>586</v>
       </c>
       <c r="L168" s="4" t="n">
         <v>0</v>
@@ -12830,21 +12795,23 @@
         <v>0</v>
       </c>
       <c r="O168" s="4" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P168" s="4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q168" s="4" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="R168" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S168" s="5" t="inlineStr"/>
       <c r="T168" s="6" t="n"/>
       <c r="U168" s="6" t="n"/>
-      <c r="V168" s="4" t="n"/>
+      <c r="V168" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
@@ -12888,13 +12855,13 @@
         </is>
       </c>
       <c r="I169" s="4" t="n">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="J169" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L169" s="4" t="n">
         <v>0</v>
@@ -12909,13 +12876,13 @@
         <v>0</v>
       </c>
       <c r="P169" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q169" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R169" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S169" s="5" t="inlineStr"/>
       <c r="T169" s="6" t="n"/>
@@ -13118,10 +13085,10 @@
         </is>
       </c>
       <c r="I172" s="4" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J172" s="4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K172" s="4" t="n">
         <v>80</v>
@@ -13139,18 +13106,20 @@
         <v>66</v>
       </c>
       <c r="P172" s="4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q172" s="4" t="n">
         <v>6</v>
       </c>
       <c r="R172" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S172" s="5" t="inlineStr"/>
       <c r="T172" s="6" t="n"/>
       <c r="U172" s="6" t="n"/>
-      <c r="V172" s="4" t="n"/>
+      <c r="V172" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
@@ -13270,10 +13239,10 @@
         </is>
       </c>
       <c r="I174" s="4" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J174" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K174" s="4" t="n">
         <v>145</v>
@@ -13288,13 +13257,13 @@
         <v>0</v>
       </c>
       <c r="O174" s="4" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P174" s="4" t="n">
         <v>43</v>
       </c>
       <c r="Q174" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R174" s="4" t="n">
         <v>0</v>
@@ -13428,7 +13397,7 @@
         <v>9</v>
       </c>
       <c r="K176" s="4" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L176" s="4" t="n">
         <v>0</v>
@@ -13440,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="O176" s="4" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="P176" s="4" t="n">
         <v>46</v>
@@ -13454,7 +13423,9 @@
       <c r="S176" s="5" t="inlineStr"/>
       <c r="T176" s="6" t="n"/>
       <c r="U176" s="6" t="n"/>
-      <c r="V176" s="4" t="n"/>
+      <c r="V176" s="4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
@@ -13574,31 +13545,31 @@
         </is>
       </c>
       <c r="I178" s="4" t="n">
-        <v>3982</v>
+        <v>3959</v>
       </c>
       <c r="J178" s="4" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="K178" s="4" t="n">
-        <v>3821</v>
+        <v>3801</v>
       </c>
       <c r="L178" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M178" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N178" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O178" s="4" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P178" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q178" s="4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R178" s="4" t="n">
         <v>3</v>
@@ -13732,7 +13703,7 @@
         <v>16</v>
       </c>
       <c r="K180" s="4" t="n">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="L180" s="4" t="n">
         <v>0</v>
@@ -13744,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="4" t="n">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="P180" s="4" t="n">
         <v>52</v>
@@ -13878,10 +13849,10 @@
         </is>
       </c>
       <c r="I182" s="4" t="n">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="J182" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K182" s="4" t="n">
         <v>792</v>
@@ -13896,13 +13867,13 @@
         <v>0</v>
       </c>
       <c r="O182" s="4" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P182" s="4" t="n">
         <v>20</v>
       </c>
       <c r="Q182" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R182" s="4" t="n">
         <v>0</v>
@@ -14036,7 +14007,7 @@
         <v>15</v>
       </c>
       <c r="K184" s="4" t="n">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="L184" s="4" t="n">
         <v>0</v>
@@ -14048,7 +14019,7 @@
         <v>0</v>
       </c>
       <c r="O184" s="4" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="P184" s="4" t="n">
         <v>0</v>
@@ -14063,7 +14034,7 @@
       <c r="T184" s="6" t="n"/>
       <c r="U184" s="6" t="n"/>
       <c r="V184" s="4" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185">
@@ -14184,10 +14155,10 @@
         </is>
       </c>
       <c r="I186" s="4" t="n">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="J186" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K186" s="4" t="n">
         <v>556</v>
@@ -14202,13 +14173,13 @@
         <v>0</v>
       </c>
       <c r="O186" s="4" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="P186" s="4" t="n">
         <v>22</v>
       </c>
       <c r="Q186" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="R186" s="4" t="n">
         <v>0</v>
@@ -14216,7 +14187,9 @@
       <c r="S186" s="5" t="inlineStr"/>
       <c r="T186" s="6" t="n"/>
       <c r="U186" s="6" t="n"/>
-      <c r="V186" s="4" t="n"/>
+      <c r="V186" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
@@ -14336,39 +14309,41 @@
         </is>
       </c>
       <c r="I188" s="4" t="n">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J188" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K188" s="4" t="n">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="L188" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M188" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N188" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O188" s="4" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="P188" s="4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q188" s="4" t="n">
         <v>6</v>
       </c>
       <c r="R188" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S188" s="5" t="inlineStr"/>
       <c r="T188" s="6" t="n"/>
       <c r="U188" s="6" t="n"/>
-      <c r="V188" s="4" t="n"/>
+      <c r="V188" s="4" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
@@ -14488,34 +14463,34 @@
         </is>
       </c>
       <c r="I190" s="4" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J190" s="4" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K190" s="4" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="L190" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M190" s="4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N190" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O190" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P190" s="4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q190" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R190" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S190" s="5" t="inlineStr"/>
       <c r="T190" s="6" t="n"/>
@@ -14564,41 +14539,39 @@
         </is>
       </c>
       <c r="I191" s="4" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J191" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P191" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q191" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R191" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="K191" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L191" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M191" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N191" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O191" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="P191" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q191" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R191" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S191" s="5" t="inlineStr">
-        <is>
-          <t>31.01-01.02</t>
-        </is>
-      </c>
-      <c r="T191" s="6" t="n"/>
+      <c r="S191" s="5" t="inlineStr"/>
+      <c r="T191" s="6" t="n">
+        <v>558</v>
+      </c>
       <c r="U191" s="6" t="n"/>
       <c r="V191" s="4" t="n"/>
     </row>
@@ -14623,7 +14596,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E192" s="3" t="inlineStr">
+      <c r="E192" s="26" t="inlineStr">
         <is>
           <t>33248 Формирователь десны LM (копия оригинала) MegaGen AnyRidge D=5 H=7 (арт. AANHAF0507) V.1</t>
         </is>
@@ -14644,34 +14617,34 @@
         </is>
       </c>
       <c r="I192" s="4" t="n">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="J192" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K192" s="4" t="n">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="K192" s="27" t="n">
+        <v>33</v>
       </c>
       <c r="L192" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M192" s="4" t="n">
-        <v>0</v>
+      <c r="M192" s="27" t="n">
+        <v>35</v>
       </c>
       <c r="N192" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O192" s="4" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P192" s="4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q192" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R192" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S192" s="5" t="inlineStr"/>
       <c r="T192" s="6" t="n"/>
@@ -14746,13 +14719,13 @@
         </is>
       </c>
       <c r="I194" s="11" t="n">
-        <v>468</v>
+        <v>637</v>
       </c>
       <c r="J194" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K194" s="4" t="n">
-        <v>407</v>
+        <v>576</v>
       </c>
       <c r="L194" s="4" t="n">
         <v>0</v>
@@ -14822,13 +14795,13 @@
         </is>
       </c>
       <c r="I195" s="4" t="n">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="J195" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K195" s="4" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="L195" s="4" t="n">
         <v>0</v>
@@ -15354,13 +15327,13 @@
         </is>
       </c>
       <c r="I202" s="11" t="n">
-        <v>387</v>
+        <v>541</v>
       </c>
       <c r="J202" s="12" t="n">
         <v>9</v>
       </c>
       <c r="K202" s="4" t="n">
-        <v>288</v>
+        <v>438</v>
       </c>
       <c r="L202" s="4" t="n">
         <v>0</v>
@@ -15375,7 +15348,7 @@
         <v>72</v>
       </c>
       <c r="P202" s="4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q202" s="4" t="n">
         <v>0</v>
@@ -15430,13 +15403,13 @@
         </is>
       </c>
       <c r="I203" s="4" t="n">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="J203" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K203" s="4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L203" s="4" t="n">
         <v>0</v>
@@ -15506,10 +15479,10 @@
         </is>
       </c>
       <c r="I204" s="4" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J204" s="14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K204" s="4" t="n">
         <v>381</v>
@@ -15527,13 +15500,13 @@
         <v>46</v>
       </c>
       <c r="P204" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q204" s="4" t="n">
         <v>2</v>
       </c>
       <c r="R204" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S204" s="5" t="inlineStr"/>
       <c r="T204" s="6" t="n"/>
@@ -15658,10 +15631,10 @@
         </is>
       </c>
       <c r="I206" s="4" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="J206" s="14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K206" s="4" t="n">
         <v>549</v>
@@ -15679,13 +15652,13 @@
         <v>36</v>
       </c>
       <c r="P206" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q206" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R206" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S206" s="5" t="inlineStr"/>
       <c r="T206" s="6" t="n"/>
@@ -15912,10 +15885,10 @@
         </is>
       </c>
       <c r="I210" s="4" t="n">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J210" s="14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K210" s="4" t="n">
         <v>238</v>
@@ -15930,13 +15903,13 @@
         <v>0</v>
       </c>
       <c r="O210" s="4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P210" s="4" t="n">
         <v>64</v>
       </c>
       <c r="Q210" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R210" s="4" t="n">
         <v>0</v>
@@ -16064,10 +16037,10 @@
         </is>
       </c>
       <c r="I212" s="4" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J212" s="14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K212" s="4" t="n">
         <v>177</v>
@@ -16082,13 +16055,13 @@
         <v>0</v>
       </c>
       <c r="O212" s="4" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P212" s="4" t="n">
         <v>20</v>
       </c>
       <c r="Q212" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R212" s="4" t="n">
         <v>0</v>
@@ -16216,10 +16189,10 @@
         </is>
       </c>
       <c r="I214" s="4" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J214" s="14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K214" s="4" t="n">
         <v>194</v>
@@ -16234,13 +16207,13 @@
         <v>0</v>
       </c>
       <c r="O214" s="4" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P214" s="4" t="n">
         <v>30</v>
       </c>
       <c r="Q214" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R214" s="4" t="n">
         <v>2</v>
@@ -16908,7 +16881,7 @@
         <v>44</v>
       </c>
       <c r="K223" s="4" t="n">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="L223" s="4" t="n">
         <v>0</v>
@@ -16920,7 +16893,7 @@
         <v>0</v>
       </c>
       <c r="O223" s="4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="P223" s="4" t="n">
         <v>33</v>
@@ -18166,19 +18139,19 @@
         </is>
       </c>
       <c r="I241" s="4" t="n">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="J241" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K241" s="4" t="n">
+        <v>888</v>
+      </c>
+      <c r="L241" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="K241" s="4" t="n">
-        <v>890</v>
-      </c>
-      <c r="L241" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M241" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="N241" s="4" t="n">
         <v>0</v>
@@ -18242,7 +18215,7 @@
         </is>
       </c>
       <c r="I242" s="4" t="n">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="J242" s="14" t="n">
         <v>12</v>
@@ -18263,7 +18236,7 @@
         <v>152</v>
       </c>
       <c r="P242" s="4" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="Q242" s="4" t="n">
         <v>0</v>
@@ -18318,13 +18291,13 @@
         </is>
       </c>
       <c r="I243" s="4" t="n">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J243" s="14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K243" s="4" t="n">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="L243" s="4" t="n">
         <v>0</v>
@@ -18336,13 +18309,13 @@
         <v>4</v>
       </c>
       <c r="O243" s="4" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P243" s="4" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q243" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R243" s="4" t="n">
         <v>0</v>
@@ -18394,10 +18367,10 @@
         </is>
       </c>
       <c r="I244" s="17" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J244" s="18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K244" s="4" t="n">
         <v>129</v>
@@ -18412,13 +18385,13 @@
         <v>0</v>
       </c>
       <c r="O244" s="4" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P244" s="4" t="n">
         <v>43</v>
       </c>
       <c r="Q244" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R244" s="4" t="n">
         <v>7</v>
@@ -18546,19 +18519,19 @@
         </is>
       </c>
       <c r="I246" s="4" t="n">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="J246" s="14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K246" s="4" t="n">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="L246" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M246" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N246" s="4" t="n">
         <v>0</v>
@@ -18622,13 +18595,13 @@
         </is>
       </c>
       <c r="I247" s="4" t="n">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J247" s="14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K247" s="4" t="n">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="L247" s="4" t="n">
         <v>0</v>
@@ -18640,13 +18613,13 @@
         <v>4</v>
       </c>
       <c r="O247" s="4" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P247" s="4" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q247" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R247" s="4" t="n">
         <v>0</v>
@@ -18774,10 +18747,10 @@
         </is>
       </c>
       <c r="I249" s="4" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J249" s="14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K249" s="4" t="n">
         <v>61</v>
@@ -18795,13 +18768,13 @@
         <v>145</v>
       </c>
       <c r="P249" s="4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q249" s="4" t="n">
         <v>3</v>
       </c>
       <c r="R249" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S249" s="5" t="inlineStr"/>
       <c r="T249" s="6" t="n"/>
@@ -18850,10 +18823,10 @@
         </is>
       </c>
       <c r="I250" s="17" t="n">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="J250" s="18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K250" s="4" t="n">
         <v>392</v>
@@ -18868,16 +18841,16 @@
         <v>0</v>
       </c>
       <c r="O250" s="4" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P250" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q250" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R250" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S250" s="5" t="inlineStr"/>
       <c r="T250" s="6" t="n"/>
@@ -18950,13 +18923,13 @@
         </is>
       </c>
       <c r="I252" s="11" t="n">
-        <v>1505</v>
+        <v>1514</v>
       </c>
       <c r="J252" s="12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K252" s="4" t="n">
-        <v>1475</v>
+        <v>1416</v>
       </c>
       <c r="L252" s="4" t="n">
         <v>0</v>
@@ -18965,24 +18938,22 @@
         <v>0</v>
       </c>
       <c r="N252" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O252" s="4" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="P252" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q252" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R252" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S252" s="5" t="inlineStr"/>
-      <c r="T252" s="6" t="n">
-        <v>56</v>
-      </c>
+      <c r="T252" s="6" t="n"/>
       <c r="U252" s="6" t="n"/>
       <c r="V252" s="4" t="n"/>
     </row>
@@ -19311,166 +19282,160 @@
           <t>4.3</t>
         </is>
       </c>
-      <c r="E257" s="26" t="inlineStr">
-        <is>
-          <t>33280 Формирователь десны LM (копия оригинала) Nobel Replace Select 4.3 D=4.3 H=3 (арт. 33535) V.1</t>
-        </is>
-      </c>
-      <c r="F257" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G257" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H257" s="3" t="inlineStr">
+      <c r="E257" s="15" t="inlineStr">
+        <is>
+          <t>33303 Формирователь десны LM (копия оригинала) Nobel Replace Select 4.3 D=5.3 H=5 (арт. 33452) V.1</t>
+        </is>
+      </c>
+      <c r="F257" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G257" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H257" s="16" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I257" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" s="27" t="n">
-        <v>0</v>
+      <c r="I257" s="17" t="n">
+        <v>955</v>
+      </c>
+      <c r="J257" s="18" t="n">
+        <v>207</v>
       </c>
       <c r="K257" s="4" t="n">
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="L257" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M257" s="4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N257" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O257" s="4" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="P257" s="4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q257" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R257" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S257" s="5" t="inlineStr">
-        <is>
-          <t>04-05.02</t>
-        </is>
-      </c>
+      <c r="S257" s="5" t="inlineStr"/>
       <c r="T257" s="6" t="n"/>
       <c r="U257" s="6" t="n"/>
       <c r="V257" s="4" t="n"/>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="inlineStr">
-        <is>
-          <t>Формирователь десны</t>
-        </is>
-      </c>
-      <c r="B258" s="3" t="inlineStr">
-        <is>
-          <t>Аналог оригинала</t>
-        </is>
-      </c>
-      <c r="C258" s="3" t="inlineStr">
-        <is>
-          <t>Nobel Replace Select</t>
-        </is>
-      </c>
-      <c r="D258" s="3" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="E258" s="15" t="inlineStr">
-        <is>
-          <t>33303 Формирователь десны LM (копия оригинала) Nobel Replace Select 4.3 D=5.3 H=5 (арт. 33452) V.1</t>
-        </is>
-      </c>
-      <c r="F258" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G258" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H258" s="16" t="inlineStr">
+      <c r="A258" s="7" t="n"/>
+      <c r="B258" s="7" t="n"/>
+      <c r="C258" s="7" t="n"/>
+      <c r="D258" s="7" t="n"/>
+      <c r="E258" s="7" t="n"/>
+      <c r="F258" s="7" t="n"/>
+      <c r="G258" s="7" t="n"/>
+      <c r="H258" s="7" t="n"/>
+      <c r="I258" s="7" t="n"/>
+      <c r="J258" s="7" t="n"/>
+      <c r="K258" s="7" t="n"/>
+      <c r="L258" s="7" t="n"/>
+      <c r="M258" s="7" t="n"/>
+      <c r="N258" s="7" t="n"/>
+      <c r="O258" s="7" t="n"/>
+      <c r="P258" s="7" t="n"/>
+      <c r="Q258" s="7" t="n"/>
+      <c r="R258" s="7" t="n"/>
+      <c r="S258" s="7" t="n"/>
+      <c r="T258" s="8" t="n"/>
+      <c r="U258" s="8" t="n"/>
+      <c r="V258" s="7" t="n"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="inlineStr">
+        <is>
+          <t>Формирователь десны</t>
+        </is>
+      </c>
+      <c r="B259" s="3" t="inlineStr">
+        <is>
+          <t>Аналог оригинала</t>
+        </is>
+      </c>
+      <c r="C259" s="3" t="inlineStr">
+        <is>
+          <t>Osstem Implant</t>
+        </is>
+      </c>
+      <c r="D259" s="3" t="inlineStr">
+        <is>
+          <t>Mini</t>
+        </is>
+      </c>
+      <c r="E259" s="9" t="inlineStr">
+        <is>
+          <t>33028 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=3 (арт. TSHA403M) V.1</t>
+        </is>
+      </c>
+      <c r="F259" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G259" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H259" s="10" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I258" s="17" t="n">
-        <v>974</v>
-      </c>
-      <c r="J258" s="18" t="n">
-        <v>203</v>
-      </c>
-      <c r="K258" s="4" t="n">
-        <v>967</v>
-      </c>
-      <c r="L258" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M258" s="4" t="n">
-        <v>200</v>
-      </c>
-      <c r="N258" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O258" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P258" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q258" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R258" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S258" s="5" t="inlineStr"/>
-      <c r="T258" s="6" t="n">
-        <v>59</v>
-      </c>
-      <c r="U258" s="6" t="n"/>
-      <c r="V258" s="4" t="n"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="7" t="n"/>
-      <c r="B259" s="7" t="n"/>
-      <c r="C259" s="7" t="n"/>
-      <c r="D259" s="7" t="n"/>
-      <c r="E259" s="7" t="n"/>
-      <c r="F259" s="7" t="n"/>
-      <c r="G259" s="7" t="n"/>
-      <c r="H259" s="7" t="n"/>
-      <c r="I259" s="7" t="n"/>
-      <c r="J259" s="7" t="n"/>
-      <c r="K259" s="7" t="n"/>
-      <c r="L259" s="7" t="n"/>
-      <c r="M259" s="7" t="n"/>
-      <c r="N259" s="7" t="n"/>
-      <c r="O259" s="7" t="n"/>
-      <c r="P259" s="7" t="n"/>
-      <c r="Q259" s="7" t="n"/>
-      <c r="R259" s="7" t="n"/>
-      <c r="S259" s="7" t="n"/>
-      <c r="T259" s="8" t="n"/>
-      <c r="U259" s="8" t="n"/>
-      <c r="V259" s="7" t="n"/>
+      <c r="I259" s="11" t="n">
+        <v>569</v>
+      </c>
+      <c r="J259" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="K259" s="4" t="n">
+        <v>395</v>
+      </c>
+      <c r="L259" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N259" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O259" s="4" t="n">
+        <v>154</v>
+      </c>
+      <c r="P259" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q259" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="R259" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S259" s="5" t="inlineStr"/>
+      <c r="T259" s="6" t="n"/>
+      <c r="U259" s="6" t="n"/>
+      <c r="V259" s="4" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
@@ -19493,52 +19458,52 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E260" s="9" t="inlineStr">
-        <is>
-          <t>33028 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=3 (арт. TSHA403M) V.1</t>
-        </is>
-      </c>
-      <c r="F260" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G260" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H260" s="10" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I260" s="11" t="n">
-        <v>574</v>
-      </c>
-      <c r="J260" s="12" t="n">
+      <c r="E260" s="13" t="inlineStr">
+        <is>
+          <t>33028П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=3 (арт. TSHA403M) ПОЛИР. V.1.P</t>
+        </is>
+      </c>
+      <c r="F260" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G260" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H260" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1.P</t>
+        </is>
+      </c>
+      <c r="I260" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="J260" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M260" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O260" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="K260" s="4" t="n">
-        <v>400</v>
-      </c>
-      <c r="L260" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M260" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N260" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="O260" s="4" t="n">
-        <v>154</v>
-      </c>
-      <c r="P260" s="4" t="n">
-        <v>20</v>
-      </c>
       <c r="Q260" s="4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R260" s="4" t="n">
         <v>0</v>
@@ -19571,7 +19536,7 @@
       </c>
       <c r="E261" s="13" t="inlineStr">
         <is>
-          <t>33028П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=3 (арт. TSHA403M) ПОЛИР. V.1.P</t>
+          <t>33029 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1</t>
         </is>
       </c>
       <c r="F261" s="3" t="inlineStr">
@@ -19586,43 +19551,47 @@
       </c>
       <c r="H261" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I261" s="4" t="n">
-        <v>29</v>
+        <v>643</v>
       </c>
       <c r="J261" s="14" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="K261" s="4" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="L261" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N261" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="O261" s="4" t="n">
+        <v>194</v>
+      </c>
+      <c r="P261" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q261" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="R261" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="S261" s="5" t="inlineStr"/>
+      <c r="T261" s="6" t="n">
+        <v>232</v>
+      </c>
+      <c r="U261" s="6" t="n"/>
+      <c r="V261" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="M261" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N261" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O261" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P261" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q261" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R261" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S261" s="5" t="inlineStr"/>
-      <c r="T261" s="6" t="n"/>
-      <c r="U261" s="6" t="n"/>
-      <c r="V261" s="4" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
@@ -19645,9 +19614,9 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E262" s="28" t="inlineStr">
-        <is>
-          <t>33029 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=5 (арт. TSHA405M) V.1</t>
+      <c r="E262" s="13" t="inlineStr">
+        <is>
+          <t>33030 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=7 (арт. TSHA407M) V.1</t>
         </is>
       </c>
       <c r="F262" s="3" t="inlineStr">
@@ -19666,42 +19635,40 @@
         </is>
       </c>
       <c r="I262" s="4" t="n">
-        <v>204</v>
+        <v>1002</v>
       </c>
       <c r="J262" s="14" t="n">
-        <v>106</v>
-      </c>
-      <c r="K262" s="29" t="n">
-        <v>9</v>
+        <v>163</v>
+      </c>
+      <c r="K262" s="4" t="n">
+        <v>876</v>
       </c>
       <c r="L262" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M262" s="29" t="n">
-        <v>10</v>
+      <c r="M262" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="N262" s="4" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O262" s="4" t="n">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="P262" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q262" s="4" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="R262" s="4" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="S262" s="5" t="inlineStr"/>
-      <c r="T262" s="6" t="n">
-        <v>381</v>
-      </c>
+      <c r="T262" s="6" t="n"/>
       <c r="U262" s="6" t="n"/>
       <c r="V262" s="4" t="n">
-        <v>2</v>
+        <v>127</v>
       </c>
     </row>
     <row r="263">
@@ -19725,9 +19692,9 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E263" s="26" t="inlineStr">
-        <is>
-          <t>33030 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=7 (арт. TSHA407M) V.1</t>
+      <c r="E263" s="13" t="inlineStr">
+        <is>
+          <t>33030П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=7 (арт. TSHA407M) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F263" s="3" t="inlineStr">
@@ -19742,14 +19709,14 @@
       </c>
       <c r="H263" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I263" s="25" t="n">
-        <v>108</v>
-      </c>
-      <c r="J263" s="27" t="n">
-        <v>131</v>
+          <t>Версия 1.P</t>
+        </is>
+      </c>
+      <c r="I263" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J263" s="14" t="n">
+        <v>2</v>
       </c>
       <c r="K263" s="4" t="n">
         <v>0</v>
@@ -19761,28 +19728,24 @@
         <v>0</v>
       </c>
       <c r="N263" s="4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O263" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="P263" s="4" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Q263" s="4" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="R263" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S263" s="5" t="inlineStr"/>
-      <c r="T263" s="6" t="n">
-        <v>935</v>
-      </c>
+      <c r="T263" s="6" t="n"/>
       <c r="U263" s="6" t="n"/>
-      <c r="V263" s="4" t="n">
-        <v>134</v>
-      </c>
+      <c r="V263" s="4" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
@@ -19807,7 +19770,7 @@
       </c>
       <c r="E264" s="13" t="inlineStr">
         <is>
-          <t>33030П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=7 (арт. TSHA407M) ПОЛИР. V.1.P</t>
+          <t>33046 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) V.1</t>
         </is>
       </c>
       <c r="F264" s="3" t="inlineStr">
@@ -19822,35 +19785,35 @@
       </c>
       <c r="H264" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I264" s="4" t="n">
-        <v>9</v>
+        <v>712</v>
       </c>
       <c r="J264" s="14" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K264" s="4" t="n">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="L264" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M264" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N264" s="4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O264" s="4" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="P264" s="4" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="Q264" s="4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="R264" s="4" t="n">
         <v>0</v>
@@ -19858,7 +19821,9 @@
       <c r="S264" s="5" t="inlineStr"/>
       <c r="T264" s="6" t="n"/>
       <c r="U264" s="6" t="n"/>
-      <c r="V264" s="4" t="n"/>
+      <c r="V264" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
@@ -19883,7 +19848,7 @@
       </c>
       <c r="E265" s="13" t="inlineStr">
         <is>
-          <t>33046 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) V.1</t>
+          <t>33046П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F265" s="3" t="inlineStr">
@@ -19898,17 +19863,17 @@
       </c>
       <c r="H265" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I265" s="4" t="n">
-        <v>550</v>
+        <v>47</v>
       </c>
       <c r="J265" s="14" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="K265" s="4" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="L265" s="4" t="n">
         <v>0</v>
@@ -19917,26 +19882,24 @@
         <v>0</v>
       </c>
       <c r="N265" s="4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O265" s="4" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="P265" s="4" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="Q265" s="4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="R265" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S265" s="5" t="inlineStr"/>
       <c r="T265" s="6" t="n"/>
       <c r="U265" s="6" t="n"/>
-      <c r="V265" s="4" t="n">
-        <v>19</v>
-      </c>
+      <c r="V265" s="4" t="n"/>
     </row>
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
@@ -19961,7 +19924,7 @@
       </c>
       <c r="E266" s="13" t="inlineStr">
         <is>
-          <t>33046П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4 H=4 (арт. TSHA404M) ПОЛИР. V.1.P</t>
+          <t>33047 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=3 (арт. TSHA453M) V.1</t>
         </is>
       </c>
       <c r="F266" s="3" t="inlineStr">
@@ -19976,17 +19939,17 @@
       </c>
       <c r="H266" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I266" s="4" t="n">
-        <v>224</v>
+        <v>671</v>
       </c>
       <c r="J266" s="14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K266" s="4" t="n">
-        <v>177</v>
+        <v>528</v>
       </c>
       <c r="L266" s="4" t="n">
         <v>0</v>
@@ -19998,16 +19961,16 @@
         <v>0</v>
       </c>
       <c r="O266" s="4" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="P266" s="4" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="Q266" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R266" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S266" s="5" t="inlineStr"/>
       <c r="T266" s="6" t="n"/>
@@ -20037,7 +20000,7 @@
       </c>
       <c r="E267" s="13" t="inlineStr">
         <is>
-          <t>33047 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=3 (арт. TSHA453M) V.1</t>
+          <t>33047П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=3 (арт. TSHA453M) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F267" s="3" t="inlineStr">
@@ -20052,17 +20015,17 @@
       </c>
       <c r="H267" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I267" s="4" t="n">
-        <v>676</v>
+        <v>51</v>
       </c>
       <c r="J267" s="14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K267" s="4" t="n">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="L267" s="4" t="n">
         <v>0</v>
@@ -20074,13 +20037,13 @@
         <v>0</v>
       </c>
       <c r="O267" s="4" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="P267" s="4" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="Q267" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R267" s="4" t="n">
         <v>0</v>
@@ -20088,9 +20051,7 @@
       <c r="S267" s="5" t="inlineStr"/>
       <c r="T267" s="6" t="n"/>
       <c r="U267" s="6" t="n"/>
-      <c r="V267" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V267" s="4" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
@@ -20115,7 +20076,7 @@
       </c>
       <c r="E268" s="13" t="inlineStr">
         <is>
-          <t>33047П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=3 (арт. TSHA453M) ПОЛИР. V.1.P</t>
+          <t>33048 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=4 (арт. TSHA454M) V.2</t>
         </is>
       </c>
       <c r="F268" s="3" t="inlineStr">
@@ -20130,17 +20091,17 @@
       </c>
       <c r="H268" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 2</t>
         </is>
       </c>
       <c r="I268" s="4" t="n">
-        <v>51</v>
+        <v>2338</v>
       </c>
       <c r="J268" s="14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K268" s="4" t="n">
-        <v>0</v>
+        <v>2111</v>
       </c>
       <c r="L268" s="4" t="n">
         <v>0</v>
@@ -20152,13 +20113,13 @@
         <v>0</v>
       </c>
       <c r="O268" s="4" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="P268" s="4" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="Q268" s="4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R268" s="4" t="n">
         <v>0</v>
@@ -20166,7 +20127,9 @@
       <c r="S268" s="5" t="inlineStr"/>
       <c r="T268" s="6" t="n"/>
       <c r="U268" s="6" t="n"/>
-      <c r="V268" s="4" t="n"/>
+      <c r="V268" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="3" t="inlineStr">
@@ -20191,7 +20154,7 @@
       </c>
       <c r="E269" s="13" t="inlineStr">
         <is>
-          <t>33048 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=4 (арт. TSHA454M) V.2</t>
+          <t>33048П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=4 (арт. TSHA454M) ПОЛИР. V.2.P</t>
         </is>
       </c>
       <c r="F269" s="3" t="inlineStr">
@@ -20206,17 +20169,17 @@
       </c>
       <c r="H269" s="3" t="inlineStr">
         <is>
-          <t>Версия 2</t>
+          <t>Версия 2.P</t>
         </is>
       </c>
       <c r="I269" s="4" t="n">
-        <v>2343</v>
+        <v>233</v>
       </c>
       <c r="J269" s="14" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K269" s="4" t="n">
-        <v>2111</v>
+        <v>203</v>
       </c>
       <c r="L269" s="4" t="n">
         <v>0</v>
@@ -20228,23 +20191,21 @@
         <v>0</v>
       </c>
       <c r="O269" s="4" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="P269" s="4" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q269" s="4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R269" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S269" s="5" t="inlineStr"/>
       <c r="T269" s="6" t="n"/>
       <c r="U269" s="6" t="n"/>
-      <c r="V269" s="4" t="n">
-        <v>8</v>
-      </c>
+      <c r="V269" s="4" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
@@ -20269,7 +20230,7 @@
       </c>
       <c r="E270" s="13" t="inlineStr">
         <is>
-          <t>33048П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=4 (арт. TSHA454M) ПОЛИР. V.2.P</t>
+          <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
         </is>
       </c>
       <c r="F270" s="3" t="inlineStr">
@@ -20284,43 +20245,45 @@
       </c>
       <c r="H270" s="3" t="inlineStr">
         <is>
-          <t>Версия 2.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I270" s="4" t="n">
-        <v>233</v>
+        <v>1938</v>
       </c>
       <c r="J270" s="14" t="n">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="K270" s="4" t="n">
-        <v>203</v>
+        <v>1533</v>
       </c>
       <c r="L270" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M270" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N270" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O270" s="4" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="P270" s="4" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="Q270" s="4" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R270" s="4" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="S270" s="5" t="inlineStr"/>
       <c r="T270" s="6" t="n"/>
       <c r="U270" s="6" t="n"/>
-      <c r="V270" s="4" t="n"/>
+      <c r="V270" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="inlineStr">
@@ -20343,9 +20306,9 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E271" s="13" t="inlineStr">
-        <is>
-          <t>33049 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) V.1</t>
+      <c r="E271" s="28" t="inlineStr">
+        <is>
+          <t>33049П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F271" s="3" t="inlineStr">
@@ -20360,45 +20323,43 @@
       </c>
       <c r="H271" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I271" s="4" t="n">
-        <v>1904</v>
-      </c>
-      <c r="J271" s="14" t="n">
-        <v>119</v>
+          <t>Версия 1.P</t>
+        </is>
+      </c>
+      <c r="I271" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" s="29" t="n">
+        <v>14</v>
       </c>
       <c r="K271" s="4" t="n">
-        <v>1603</v>
+        <v>0</v>
       </c>
       <c r="L271" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M271" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N271" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O271" s="4" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="P271" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q271" s="4" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R271" s="4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S271" s="5" t="inlineStr"/>
       <c r="T271" s="6" t="n"/>
       <c r="U271" s="6" t="n"/>
-      <c r="V271" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="V271" s="4" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
@@ -20421,9 +20382,9 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E272" s="26" t="inlineStr">
-        <is>
-          <t>33049П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=5 (арт. TSHA455M) ПОЛИР. V.1.P</t>
+      <c r="E272" s="13" t="inlineStr">
+        <is>
+          <t>33088 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1</t>
         </is>
       </c>
       <c r="F272" s="3" t="inlineStr">
@@ -20438,43 +20399,45 @@
       </c>
       <c r="H272" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
-        </is>
-      </c>
-      <c r="I272" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" s="27" t="n">
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I272" s="4" t="n">
+        <v>1154</v>
+      </c>
+      <c r="J272" s="14" t="n">
+        <v>123</v>
+      </c>
+      <c r="K272" s="4" t="n">
+        <v>845</v>
+      </c>
+      <c r="L272" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N272" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="K272" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L272" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M272" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N272" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="O272" s="4" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="P272" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q272" s="4" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="R272" s="4" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="S272" s="5" t="inlineStr"/>
       <c r="T272" s="6" t="n"/>
       <c r="U272" s="6" t="n"/>
-      <c r="V272" s="4" t="n"/>
+      <c r="V272" s="4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
@@ -20497,62 +20460,60 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E273" s="13" t="inlineStr">
-        <is>
-          <t>33088 Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) V.1</t>
-        </is>
-      </c>
-      <c r="F273" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G273" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H273" s="3" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I273" s="4" t="n">
-        <v>1185</v>
-      </c>
-      <c r="J273" s="14" t="n">
-        <v>92</v>
+      <c r="E273" s="15" t="inlineStr">
+        <is>
+          <t>33088П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) ПОЛИР. V.1.P</t>
+        </is>
+      </c>
+      <c r="F273" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G273" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H273" s="16" t="inlineStr">
+        <is>
+          <t>Версия 1.P</t>
+        </is>
+      </c>
+      <c r="I273" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="K273" s="4" t="n">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="L273" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M273" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N273" s="4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O273" s="4" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="P273" s="4" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q273" s="4" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="R273" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S273" s="5" t="inlineStr"/>
       <c r="T273" s="6" t="n"/>
       <c r="U273" s="6" t="n"/>
-      <c r="V273" s="4" t="n">
-        <v>27</v>
-      </c>
+      <c r="V273" s="4" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
@@ -20572,58 +20533,58 @@
       </c>
       <c r="D274" s="3" t="inlineStr">
         <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="E274" s="15" t="inlineStr">
-        <is>
-          <t>33088П Формирователь десны LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 H=7 (арт. TSHA457M) ПОЛИР. V.1.P</t>
-        </is>
-      </c>
-      <c r="F274" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G274" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H274" s="16" t="inlineStr">
-        <is>
-          <t>Версия 1.P</t>
-        </is>
-      </c>
-      <c r="I274" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J274" s="18" t="n">
-        <v>0</v>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="E274" s="9" t="inlineStr">
+        <is>
+          <t>33031 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=3 (арт. TSHA403R) V.1</t>
+        </is>
+      </c>
+      <c r="F274" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G274" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H274" s="10" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I274" s="11" t="n">
+        <v>674</v>
+      </c>
+      <c r="J274" s="12" t="n">
+        <v>53</v>
       </c>
       <c r="K274" s="4" t="n">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="L274" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M274" s="4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N274" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O274" s="4" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="P274" s="4" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="Q274" s="4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R274" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S274" s="5" t="inlineStr"/>
       <c r="T274" s="6" t="n"/>
@@ -20651,37 +20612,37 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E275" s="9" t="inlineStr">
-        <is>
-          <t>33031 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=3 (арт. TSHA403R) V.1</t>
-        </is>
-      </c>
-      <c r="F275" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G275" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H275" s="10" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I275" s="11" t="n">
-        <v>703</v>
-      </c>
-      <c r="J275" s="12" t="n">
-        <v>24</v>
+      <c r="E275" s="13" t="inlineStr">
+        <is>
+          <t>33031П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=3 (арт. TSHA403R) ПОЛИР. V.1.P</t>
+        </is>
+      </c>
+      <c r="F275" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G275" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H275" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1.P</t>
+        </is>
+      </c>
+      <c r="I275" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J275" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="K275" s="4" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="L275" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M275" s="4" t="n">
         <v>0</v>
@@ -20690,16 +20651,16 @@
         <v>0</v>
       </c>
       <c r="O275" s="4" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="P275" s="4" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="Q275" s="4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R275" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S275" s="5" t="inlineStr"/>
       <c r="T275" s="6" t="n"/>
@@ -20729,7 +20690,7 @@
       </c>
       <c r="E276" s="13" t="inlineStr">
         <is>
-          <t>33031П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=3 (арт. TSHA403R) ПОЛИР. V.1.P</t>
+          <t>33032 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1</t>
         </is>
       </c>
       <c r="F276" s="3" t="inlineStr">
@@ -20744,38 +20705,38 @@
       </c>
       <c r="H276" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I276" s="4" t="n">
-        <v>10</v>
+        <v>731</v>
       </c>
       <c r="J276" s="14" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="K276" s="4" t="n">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="L276" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M276" s="4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N276" s="4" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="O276" s="4" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="P276" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="Q276" s="4" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="R276" s="4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S276" s="5" t="inlineStr"/>
       <c r="T276" s="6" t="n"/>
@@ -20803,9 +20764,9 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E277" s="13" t="inlineStr">
-        <is>
-          <t>33032 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) V.1</t>
+      <c r="E277" s="28" t="inlineStr">
+        <is>
+          <t>33032П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F277" s="3" t="inlineStr">
@@ -20820,45 +20781,43 @@
       </c>
       <c r="H277" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I277" s="4" t="n">
-        <v>761</v>
-      </c>
-      <c r="J277" s="14" t="n">
-        <v>135</v>
+          <t>Версия 1.P</t>
+        </is>
+      </c>
+      <c r="I277" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="29" t="n">
+        <v>2</v>
       </c>
       <c r="K277" s="4" t="n">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="L277" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M277" s="4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N277" s="4" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="O277" s="4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="P277" s="4" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Q277" s="4" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="R277" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S277" s="5" t="inlineStr"/>
       <c r="T277" s="6" t="n"/>
       <c r="U277" s="6" t="n"/>
-      <c r="V277" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="V277" s="4" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
@@ -20881,9 +20840,9 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E278" s="26" t="inlineStr">
-        <is>
-          <t>33032П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=7 (арт. TSHA407R) ПОЛИР. V.1.P</t>
+      <c r="E278" s="13" t="inlineStr">
+        <is>
+          <t>33033 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) V.1</t>
         </is>
       </c>
       <c r="F278" s="3" t="inlineStr">
@@ -20898,43 +20857,45 @@
       </c>
       <c r="H278" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
-        </is>
-      </c>
-      <c r="I278" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" s="27" t="n">
-        <v>2</v>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I278" s="4" t="n">
+        <v>1927</v>
+      </c>
+      <c r="J278" s="14" t="n">
+        <v>41</v>
       </c>
       <c r="K278" s="4" t="n">
-        <v>0</v>
+        <v>1692</v>
       </c>
       <c r="L278" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M278" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N278" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O278" s="4" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="P278" s="4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q278" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R278" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S278" s="5" t="inlineStr"/>
       <c r="T278" s="6" t="n"/>
       <c r="U278" s="6" t="n"/>
-      <c r="V278" s="4" t="n"/>
+      <c r="V278" s="4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="inlineStr">
@@ -20959,7 +20920,7 @@
       </c>
       <c r="E279" s="13" t="inlineStr">
         <is>
-          <t>33033 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) V.1</t>
+          <t>33033П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F279" s="3" t="inlineStr">
@@ -20974,17 +20935,17 @@
       </c>
       <c r="H279" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I279" s="4" t="n">
-        <v>1942</v>
+        <v>106</v>
       </c>
       <c r="J279" s="14" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="K279" s="4" t="n">
-        <v>1702</v>
+        <v>59</v>
       </c>
       <c r="L279" s="4" t="n">
         <v>0</v>
@@ -20993,26 +20954,24 @@
         <v>0</v>
       </c>
       <c r="N279" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O279" s="4" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="P279" s="4" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="Q279" s="4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R279" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S279" s="5" t="inlineStr"/>
       <c r="T279" s="6" t="n"/>
       <c r="U279" s="6" t="n"/>
-      <c r="V279" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="V279" s="4" t="n"/>
     </row>
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
@@ -21037,7 +20996,7 @@
       </c>
       <c r="E280" s="13" t="inlineStr">
         <is>
-          <t>33033П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=4 (арт. TSHA454R) ПОЛИР. V.1.P</t>
+          <t>33034 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1</t>
         </is>
       </c>
       <c r="F280" s="3" t="inlineStr">
@@ -21052,43 +21011,45 @@
       </c>
       <c r="H280" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I280" s="4" t="n">
-        <v>76</v>
+        <v>931</v>
       </c>
       <c r="J280" s="14" t="n">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="K280" s="4" t="n">
-        <v>59</v>
+        <v>732</v>
       </c>
       <c r="L280" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M280" s="4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N280" s="4" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="O280" s="4" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="P280" s="4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q280" s="4" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="R280" s="4" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="S280" s="5" t="inlineStr"/>
       <c r="T280" s="6" t="n"/>
       <c r="U280" s="6" t="n"/>
-      <c r="V280" s="4" t="n"/>
+      <c r="V280" s="4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="inlineStr">
@@ -21113,7 +21074,7 @@
       </c>
       <c r="E281" s="13" t="inlineStr">
         <is>
-          <t>33034 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=7 (арт. TSHA457R) V.1</t>
+          <t>33035 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=3 (арт. TSHA503R) V.1</t>
         </is>
       </c>
       <c r="F281" s="3" t="inlineStr">
@@ -21132,41 +21093,39 @@
         </is>
       </c>
       <c r="I281" s="4" t="n">
-        <v>1023</v>
+        <v>1569</v>
       </c>
       <c r="J281" s="14" t="n">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="K281" s="4" t="n">
-        <v>802</v>
+        <v>1307</v>
       </c>
       <c r="L281" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M281" s="4" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="N281" s="4" t="n">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="O281" s="4" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P281" s="4" t="n">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="Q281" s="4" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="R281" s="4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="S281" s="5" t="inlineStr"/>
       <c r="T281" s="6" t="n"/>
       <c r="U281" s="6" t="n"/>
-      <c r="V281" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="V281" s="4" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
@@ -21191,7 +21150,7 @@
       </c>
       <c r="E282" s="13" t="inlineStr">
         <is>
-          <t>33035 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=3 (арт. TSHA503R) V.1</t>
+          <t>33035П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=3 (арт. TSHA503R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F282" s="3" t="inlineStr">
@@ -21206,38 +21165,38 @@
       </c>
       <c r="H282" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I282" s="4" t="n">
-        <v>1574</v>
+        <v>80</v>
       </c>
       <c r="J282" s="14" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K282" s="4" t="n">
-        <v>1312</v>
+        <v>0</v>
       </c>
       <c r="L282" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M282" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N282" s="4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O282" s="4" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="P282" s="4" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q282" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R282" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S282" s="5" t="inlineStr"/>
       <c r="T282" s="6" t="n"/>
@@ -21267,7 +21226,7 @@
       </c>
       <c r="E283" s="13" t="inlineStr">
         <is>
-          <t>33035П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=3 (арт. TSHA503R) ПОЛИР. V.1.P</t>
+          <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
         </is>
       </c>
       <c r="F283" s="3" t="inlineStr">
@@ -21282,43 +21241,45 @@
       </c>
       <c r="H283" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I283" s="4" t="n">
-        <v>80</v>
+        <v>1070</v>
       </c>
       <c r="J283" s="14" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="K283" s="4" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="L283" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M283" s="4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N283" s="4" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O283" s="4" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="P283" s="4" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Q283" s="4" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="R283" s="4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="S283" s="5" t="inlineStr"/>
       <c r="T283" s="6" t="n"/>
       <c r="U283" s="6" t="n"/>
-      <c r="V283" s="4" t="n"/>
+      <c r="V283" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="inlineStr">
@@ -21343,7 +21304,7 @@
       </c>
       <c r="E284" s="13" t="inlineStr">
         <is>
-          <t>33036 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=5 (арт. TSHA505R) V.1</t>
+          <t>33050 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4 (арт. TSHA404R) V.1</t>
         </is>
       </c>
       <c r="F284" s="3" t="inlineStr">
@@ -21362,41 +21323,39 @@
         </is>
       </c>
       <c r="I284" s="4" t="n">
-        <v>1143</v>
+        <v>532</v>
       </c>
       <c r="J284" s="14" t="n">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="K284" s="4" t="n">
-        <v>467</v>
+        <v>361</v>
       </c>
       <c r="L284" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M284" s="4" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N284" s="4" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="O284" s="4" t="n">
-        <v>606</v>
+        <v>145</v>
       </c>
       <c r="P284" s="4" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="Q284" s="4" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="R284" s="4" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="S284" s="5" t="inlineStr"/>
       <c r="T284" s="6" t="n"/>
       <c r="U284" s="6" t="n"/>
-      <c r="V284" s="4" t="n">
-        <v>51</v>
-      </c>
+      <c r="V284" s="4" t="n"/>
     </row>
     <row r="285">
       <c r="A285" s="3" t="inlineStr">
@@ -21421,7 +21380,7 @@
       </c>
       <c r="E285" s="13" t="inlineStr">
         <is>
-          <t>33050 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4 (арт. TSHA404R) V.1</t>
+          <t>33050П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4 (арт. TSHA404R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F285" s="3" t="inlineStr">
@@ -21436,38 +21395,38 @@
       </c>
       <c r="H285" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I285" s="4" t="n">
-        <v>544</v>
+        <v>29</v>
       </c>
       <c r="J285" s="14" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K285" s="4" t="n">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="L285" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M285" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N285" s="4" t="n">
-        <v>2</v>
-      </c>
       <c r="O285" s="4" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="P285" s="4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q285" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R285" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S285" s="5" t="inlineStr"/>
       <c r="T285" s="6" t="n"/>
@@ -21497,7 +21456,7 @@
       </c>
       <c r="E286" s="13" t="inlineStr">
         <is>
-          <t>33050П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4 (арт. TSHA404R) ПОЛИР. V.1.P</t>
+          <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
         </is>
       </c>
       <c r="F286" s="3" t="inlineStr">
@@ -21512,43 +21471,45 @@
       </c>
       <c r="H286" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I286" s="4" t="n">
-        <v>29</v>
+        <v>646</v>
       </c>
       <c r="J286" s="14" t="n">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="K286" s="4" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="L286" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M286" s="4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N286" s="4" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O286" s="4" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="P286" s="4" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="Q286" s="4" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="R286" s="4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="S286" s="5" t="inlineStr"/>
       <c r="T286" s="6" t="n"/>
       <c r="U286" s="6" t="n"/>
-      <c r="V286" s="4" t="n"/>
+      <c r="V286" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="3" t="inlineStr">
@@ -21573,7 +21534,7 @@
       </c>
       <c r="E287" s="13" t="inlineStr">
         <is>
-          <t>33051 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) V.1</t>
+          <t>33051П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F287" s="3" t="inlineStr">
@@ -21588,45 +21549,43 @@
       </c>
       <c r="H287" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I287" s="4" t="n">
-        <v>687</v>
+        <v>1</v>
       </c>
       <c r="J287" s="14" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="K287" s="4" t="n">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="L287" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M287" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N287" s="4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O287" s="4" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="P287" s="4" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="Q287" s="4" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="R287" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S287" s="5" t="inlineStr"/>
       <c r="T287" s="6" t="n"/>
       <c r="U287" s="6" t="n"/>
-      <c r="V287" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="V287" s="4" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="3" t="inlineStr">
@@ -21651,7 +21610,7 @@
       </c>
       <c r="E288" s="13" t="inlineStr">
         <is>
-          <t>33051П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4 G/H=5 H=5 (арт. TSHA405R) ПОЛИР. V.1.P</t>
+          <t>33052 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=3 (арт. TSHA453R) V.1</t>
         </is>
       </c>
       <c r="F288" s="3" t="inlineStr">
@@ -21666,35 +21625,35 @@
       </c>
       <c r="H288" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I288" s="4" t="n">
+        <v>333</v>
+      </c>
+      <c r="J288" s="14" t="n">
+        <v>41</v>
+      </c>
+      <c r="K288" s="4" t="n">
+        <v>222</v>
+      </c>
+      <c r="L288" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J288" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K288" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L288" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M288" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N288" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O288" s="4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="P288" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q288" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R288" s="4" t="n">
         <v>0</v>
@@ -21727,7 +21686,7 @@
       </c>
       <c r="E289" s="13" t="inlineStr">
         <is>
-          <t>33052 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=3 (арт. TSHA453R) V.1</t>
+          <t>33052П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=3 (арт. TSHA453R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F289" s="3" t="inlineStr">
@@ -21742,38 +21701,38 @@
       </c>
       <c r="H289" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I289" s="4" t="n">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="J289" s="14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K289" s="4" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="L289" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M289" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N289" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O289" s="4" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="P289" s="4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q289" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R289" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S289" s="5" t="inlineStr"/>
       <c r="T289" s="6" t="n"/>
@@ -21803,7 +21762,7 @@
       </c>
       <c r="E290" s="13" t="inlineStr">
         <is>
-          <t>33052П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=3 (арт. TSHA453R) ПОЛИР. V.1.P</t>
+          <t>33053 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1</t>
         </is>
       </c>
       <c r="F290" s="3" t="inlineStr">
@@ -21818,43 +21777,45 @@
       </c>
       <c r="H290" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I290" s="4" t="n">
-        <v>184</v>
+        <v>1755</v>
       </c>
       <c r="J290" s="14" t="n">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="K290" s="4" t="n">
-        <v>107</v>
+        <v>1378</v>
       </c>
       <c r="L290" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M290" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N290" s="4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="O290" s="4" t="n">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="P290" s="4" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="Q290" s="4" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R290" s="4" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="S290" s="5" t="inlineStr"/>
       <c r="T290" s="6" t="n"/>
       <c r="U290" s="6" t="n"/>
-      <c r="V290" s="4" t="n"/>
+      <c r="V290" s="4" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="3" t="inlineStr">
@@ -21877,9 +21838,9 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E291" s="13" t="inlineStr">
-        <is>
-          <t>33053 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) V.1</t>
+      <c r="E291" s="28" t="inlineStr">
+        <is>
+          <t>33053П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F291" s="3" t="inlineStr">
@@ -21894,45 +21855,43 @@
       </c>
       <c r="H291" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I291" s="4" t="n">
-        <v>1713</v>
-      </c>
-      <c r="J291" s="14" t="n">
-        <v>192</v>
+          <t>Версия 1.P</t>
+        </is>
+      </c>
+      <c r="I291" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="29" t="n">
+        <v>1</v>
       </c>
       <c r="K291" s="4" t="n">
-        <v>1378</v>
+        <v>0</v>
       </c>
       <c r="L291" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M291" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N291" s="4" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="O291" s="4" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="P291" s="4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q291" s="4" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="R291" s="4" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="S291" s="5" t="inlineStr"/>
       <c r="T291" s="6" t="n"/>
       <c r="U291" s="6" t="n"/>
-      <c r="V291" s="4" t="n">
-        <v>21</v>
-      </c>
+      <c r="V291" s="4" t="n"/>
     </row>
     <row r="292">
       <c r="A292" s="3" t="inlineStr">
@@ -21955,9 +21914,9 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E292" s="26" t="inlineStr">
-        <is>
-          <t>33053П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 H=5 (арт. TSHA455R) ПОЛИР. V.1.P</t>
+      <c r="E292" s="13" t="inlineStr">
+        <is>
+          <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
         </is>
       </c>
       <c r="F292" s="3" t="inlineStr">
@@ -21972,35 +21931,35 @@
       </c>
       <c r="H292" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
-        </is>
-      </c>
-      <c r="I292" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" s="27" t="n">
-        <v>1</v>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I292" s="4" t="n">
+        <v>888</v>
+      </c>
+      <c r="J292" s="14" t="n">
+        <v>112</v>
       </c>
       <c r="K292" s="4" t="n">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="L292" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M292" s="4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N292" s="4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="O292" s="4" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="P292" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q292" s="4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R292" s="4" t="n">
         <v>1</v>
@@ -22008,7 +21967,9 @@
       <c r="S292" s="5" t="inlineStr"/>
       <c r="T292" s="6" t="n"/>
       <c r="U292" s="6" t="n"/>
-      <c r="V292" s="4" t="n"/>
+      <c r="V292" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="3" t="inlineStr">
@@ -22033,7 +21994,7 @@
       </c>
       <c r="E293" s="13" t="inlineStr">
         <is>
-          <t>33054 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) V.1</t>
+          <t>33054П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F293" s="3" t="inlineStr">
@@ -22048,45 +22009,43 @@
       </c>
       <c r="H293" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I293" s="4" t="n">
-        <v>838</v>
+        <v>72</v>
       </c>
       <c r="J293" s="14" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K293" s="4" t="n">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="L293" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M293" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N293" s="4" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="O293" s="4" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="P293" s="4" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="Q293" s="4" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="R293" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S293" s="5" t="inlineStr"/>
       <c r="T293" s="6" t="n"/>
       <c r="U293" s="6" t="n"/>
-      <c r="V293" s="4" t="n">
-        <v>8</v>
-      </c>
+      <c r="V293" s="4" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
@@ -22111,7 +22070,7 @@
       </c>
       <c r="E294" s="13" t="inlineStr">
         <is>
-          <t>33054П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=4 (арт. TSHA504R) ПОЛИР. V.1.P</t>
+          <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
         </is>
       </c>
       <c r="F294" s="3" t="inlineStr">
@@ -22126,43 +22085,45 @@
       </c>
       <c r="H294" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I294" s="4" t="n">
-        <v>137</v>
+        <v>1003</v>
       </c>
       <c r="J294" s="14" t="n">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="K294" s="4" t="n">
-        <v>65</v>
+        <v>588</v>
       </c>
       <c r="L294" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M294" s="4" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N294" s="4" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="O294" s="4" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="P294" s="4" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="Q294" s="4" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="R294" s="4" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="S294" s="5" t="inlineStr"/>
       <c r="T294" s="6" t="n"/>
       <c r="U294" s="6" t="n"/>
-      <c r="V294" s="4" t="n"/>
+      <c r="V294" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="inlineStr">
@@ -22185,9 +22146,9 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E295" s="28" t="inlineStr">
-        <is>
-          <t>33089 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 H=7 (арт. TSHA507R) V.1</t>
+      <c r="E295" s="13" t="inlineStr">
+        <is>
+          <t>33090 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=3 (арт. TSHA603R) V.1</t>
         </is>
       </c>
       <c r="F295" s="3" t="inlineStr">
@@ -22206,43 +22167,39 @@
         </is>
       </c>
       <c r="I295" s="4" t="n">
-        <v>429</v>
+        <v>328</v>
       </c>
       <c r="J295" s="14" t="n">
-        <v>247</v>
-      </c>
-      <c r="K295" s="29" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="K295" s="4" t="n">
+        <v>215</v>
       </c>
       <c r="L295" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M295" s="29" t="n">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="M295" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="N295" s="4" t="n">
         <v>6</v>
       </c>
       <c r="O295" s="4" t="n">
-        <v>419</v>
+        <v>102</v>
       </c>
       <c r="P295" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q295" s="4" t="n">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="R295" s="4" t="n">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="S295" s="5" t="inlineStr"/>
-      <c r="T295" s="6" t="n">
-        <v>731</v>
-      </c>
+      <c r="T295" s="6" t="n"/>
       <c r="U295" s="6" t="n"/>
-      <c r="V295" s="4" t="n">
-        <v>14</v>
-      </c>
+      <c r="V295" s="4" t="n"/>
     </row>
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
@@ -22265,9 +22222,9 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E296" s="13" t="inlineStr">
-        <is>
-          <t>33090 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=3 (арт. TSHA603R) V.1</t>
+      <c r="E296" s="30" t="inlineStr">
+        <is>
+          <t>33090П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=3 (арт. TSHA603R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F296" s="3" t="inlineStr">
@@ -22282,38 +22239,38 @@
       </c>
       <c r="H296" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I296" s="4" t="n">
-        <v>242</v>
+        <v>90</v>
       </c>
       <c r="J296" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="K296" s="4" t="n">
-        <v>129</v>
+        <v>3</v>
+      </c>
+      <c r="K296" s="27" t="n">
+        <v>0</v>
       </c>
       <c r="L296" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" s="4" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M296" s="27" t="n">
+        <v>3</v>
       </c>
       <c r="N296" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O296" s="4" t="n">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="P296" s="4" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="Q296" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R296" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S296" s="5" t="inlineStr"/>
       <c r="T296" s="6" t="n"/>
@@ -22343,7 +22300,7 @@
       </c>
       <c r="E297" s="13" t="inlineStr">
         <is>
-          <t>33090П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=3 (арт. TSHA603R) ПОЛИР. V.1.P</t>
+          <t>33091 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1</t>
         </is>
       </c>
       <c r="F297" s="3" t="inlineStr">
@@ -22358,35 +22315,35 @@
       </c>
       <c r="H297" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I297" s="4" t="n">
-        <v>176</v>
+        <v>2492</v>
       </c>
       <c r="J297" s="14" t="n">
+        <v>39</v>
+      </c>
+      <c r="K297" s="4" t="n">
+        <v>2219</v>
+      </c>
+      <c r="L297" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="K297" s="4" t="n">
-        <v>86</v>
-      </c>
-      <c r="L297" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M297" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N297" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="O297" s="4" t="n">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="P297" s="4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Q297" s="4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R297" s="4" t="n">
         <v>0</v>
@@ -22394,7 +22351,9 @@
       <c r="S297" s="5" t="inlineStr"/>
       <c r="T297" s="6" t="n"/>
       <c r="U297" s="6" t="n"/>
-      <c r="V297" s="4" t="n"/>
+      <c r="V297" s="4" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
@@ -22419,7 +22378,7 @@
       </c>
       <c r="E298" s="13" t="inlineStr">
         <is>
-          <t>33091 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) V.1</t>
+          <t>33091П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F298" s="3" t="inlineStr">
@@ -22434,17 +22393,17 @@
       </c>
       <c r="H298" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I298" s="4" t="n">
-        <v>2492</v>
+        <v>25</v>
       </c>
       <c r="J298" s="14" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="K298" s="4" t="n">
-        <v>2269</v>
+        <v>0</v>
       </c>
       <c r="L298" s="4" t="n">
         <v>0</v>
@@ -22453,26 +22412,24 @@
         <v>0</v>
       </c>
       <c r="N298" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O298" s="4" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="P298" s="4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q298" s="4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="R298" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S298" s="5" t="inlineStr"/>
       <c r="T298" s="6" t="n"/>
       <c r="U298" s="6" t="n"/>
-      <c r="V298" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="V298" s="4" t="n"/>
     </row>
     <row r="299">
       <c r="A299" s="3" t="inlineStr">
@@ -22497,7 +22454,7 @@
       </c>
       <c r="E299" s="13" t="inlineStr">
         <is>
-          <t>33091П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=4 (арт. TSHA604R) ПОЛИР. V.1.P</t>
+          <t>33092 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1</t>
         </is>
       </c>
       <c r="F299" s="3" t="inlineStr">
@@ -22512,43 +22469,45 @@
       </c>
       <c r="H299" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
+          <t>Версия 1</t>
         </is>
       </c>
       <c r="I299" s="4" t="n">
-        <v>25</v>
+        <v>1406</v>
       </c>
       <c r="J299" s="14" t="n">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="K299" s="4" t="n">
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="L299" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M299" s="4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N299" s="4" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="O299" s="4" t="n">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="P299" s="4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q299" s="4" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="R299" s="4" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="S299" s="5" t="inlineStr"/>
       <c r="T299" s="6" t="n"/>
       <c r="U299" s="6" t="n"/>
-      <c r="V299" s="4" t="n"/>
+      <c r="V299" s="4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="inlineStr">
@@ -22573,7 +22532,7 @@
       </c>
       <c r="E300" s="13" t="inlineStr">
         <is>
-          <t>33092 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 H=5 (арт. TSHA605R) V.1</t>
+          <t>33093 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) V.1</t>
         </is>
       </c>
       <c r="F300" s="3" t="inlineStr">
@@ -22592,43 +22551,39 @@
         </is>
       </c>
       <c r="I300" s="4" t="n">
-        <v>1130</v>
+        <v>940</v>
       </c>
       <c r="J300" s="14" t="n">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="K300" s="4" t="n">
-        <v>803</v>
+        <v>490</v>
       </c>
       <c r="L300" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M300" s="4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N300" s="4" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="O300" s="4" t="n">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="P300" s="4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q300" s="4" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R300" s="4" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S300" s="5" t="inlineStr"/>
-      <c r="T300" s="6" t="n">
-        <v>326</v>
-      </c>
+      <c r="T300" s="6" t="n"/>
       <c r="U300" s="6" t="n"/>
-      <c r="V300" s="4" t="n">
-        <v>35</v>
-      </c>
+      <c r="V300" s="4" t="n"/>
     </row>
     <row r="301">
       <c r="A301" s="3" t="inlineStr">
@@ -22653,7 +22608,7 @@
       </c>
       <c r="E301" s="13" t="inlineStr">
         <is>
-          <t>33093 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=6 G/H=7 H=7 (арт. TSHA607R) V.1</t>
+          <t>33094 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=3 (арт. TSHA703R) V.1</t>
         </is>
       </c>
       <c r="F301" s="3" t="inlineStr">
@@ -22672,41 +22627,39 @@
         </is>
       </c>
       <c r="I301" s="4" t="n">
-        <v>1004</v>
+        <v>1521</v>
       </c>
       <c r="J301" s="14" t="n">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="K301" s="4" t="n">
-        <v>510</v>
+        <v>1297</v>
       </c>
       <c r="L301" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M301" s="4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N301" s="4" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O301" s="4" t="n">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="P301" s="4" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="Q301" s="4" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="R301" s="4" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="S301" s="5" t="inlineStr"/>
       <c r="T301" s="6" t="n"/>
       <c r="U301" s="6" t="n"/>
-      <c r="V301" s="4" t="n">
-        <v>18</v>
-      </c>
+      <c r="V301" s="4" t="n"/>
     </row>
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
@@ -22731,7 +22684,7 @@
       </c>
       <c r="E302" s="13" t="inlineStr">
         <is>
-          <t>33094 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=3 (арт. TSHA703R) V.1</t>
+          <t>33096 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 G/H=5 H=5 (арт. TSHA705R) V.1</t>
         </is>
       </c>
       <c r="F302" s="3" t="inlineStr">
@@ -22750,39 +22703,37 @@
         </is>
       </c>
       <c r="I302" s="4" t="n">
-        <v>1521</v>
+        <v>1692</v>
       </c>
       <c r="J302" s="14" t="n">
+        <v>127</v>
+      </c>
+      <c r="K302" s="4" t="n">
+        <v>1146</v>
+      </c>
+      <c r="L302" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M302" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="N302" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="K302" s="4" t="n">
-        <v>1297</v>
-      </c>
-      <c r="L302" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M302" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N302" s="4" t="n">
-        <v>8</v>
-      </c>
       <c r="O302" s="4" t="n">
-        <v>149</v>
+        <v>512</v>
       </c>
       <c r="P302" s="4" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="Q302" s="4" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="R302" s="4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S302" s="5" t="inlineStr"/>
-      <c r="T302" s="6" t="n">
-        <v>65</v>
-      </c>
+      <c r="T302" s="6" t="n"/>
       <c r="U302" s="6" t="n"/>
       <c r="V302" s="4" t="n"/>
     </row>
@@ -22807,9 +22758,9 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E303" s="13" t="inlineStr">
-        <is>
-          <t>33096 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 G/H=5 H=5 (арт. TSHA705R) V.1</t>
+      <c r="E303" s="28" t="inlineStr">
+        <is>
+          <t>33096П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 G/H=5 H=5 (арт. TSHA705R) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F303" s="3" t="inlineStr">
@@ -22824,47 +22775,43 @@
       </c>
       <c r="H303" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I303" s="4" t="n">
-        <v>1679</v>
-      </c>
-      <c r="J303" s="14" t="n">
-        <v>84</v>
+          <t>Версия 1.P</t>
+        </is>
+      </c>
+      <c r="I303" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J303" s="29" t="n">
+        <v>3</v>
       </c>
       <c r="K303" s="4" t="n">
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="L303" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O303" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="M303" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N303" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="O303" s="4" t="n">
-        <v>478</v>
-      </c>
       <c r="P303" s="4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q303" s="4" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="R303" s="4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S303" s="5" t="inlineStr"/>
-      <c r="T303" s="6" t="n">
-        <v>87</v>
-      </c>
+      <c r="T303" s="6" t="n"/>
       <c r="U303" s="6" t="n"/>
-      <c r="V303" s="4" t="n">
-        <v>8</v>
-      </c>
+      <c r="V303" s="4" t="n"/>
     </row>
     <row r="304">
       <c r="A304" s="3" t="inlineStr">
@@ -22887,9 +22834,9 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E304" s="26" t="inlineStr">
-        <is>
-          <t>33096П Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 G/H=5 H=5 (арт. TSHA705R) ПОЛИР. V.1.P</t>
+      <c r="E304" s="13" t="inlineStr">
+        <is>
+          <t>33097 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=7 (арт. TSHA707R) V.1</t>
         </is>
       </c>
       <c r="F304" s="3" t="inlineStr">
@@ -22904,38 +22851,38 @@
       </c>
       <c r="H304" s="3" t="inlineStr">
         <is>
-          <t>Версия 1.P</t>
-        </is>
-      </c>
-      <c r="I304" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J304" s="27" t="n">
-        <v>3</v>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I304" s="4" t="n">
+        <v>1078</v>
+      </c>
+      <c r="J304" s="14" t="n">
+        <v>150</v>
       </c>
       <c r="K304" s="4" t="n">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="L304" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M304" s="4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N304" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O304" s="4" t="n">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="P304" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q304" s="4" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="R304" s="4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S304" s="5" t="inlineStr"/>
       <c r="T304" s="6" t="n"/>
@@ -22950,7 +22897,7 @@
       </c>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>Аналог оригинала</t>
+          <t>Разработка Lenmiriot</t>
         </is>
       </c>
       <c r="C305" s="3" t="inlineStr">
@@ -22965,7 +22912,7 @@
       </c>
       <c r="E305" s="13" t="inlineStr">
         <is>
-          <t>33097 Формирователь десны LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=7 H=7 (арт. TSHA707R) V.1</t>
+          <t>33141 Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 V.1</t>
         </is>
       </c>
       <c r="F305" s="3" t="inlineStr">
@@ -22984,40 +22931,40 @@
         </is>
       </c>
       <c r="I305" s="4" t="n">
-        <v>1109</v>
+        <v>1085</v>
       </c>
       <c r="J305" s="14" t="n">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K305" s="4" t="n">
-        <v>674</v>
+        <v>886</v>
       </c>
       <c r="L305" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M305" s="4" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="N305" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O305" s="4" t="n">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="P305" s="4" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="Q305" s="4" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="R305" s="4" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="S305" s="5" t="inlineStr"/>
       <c r="T305" s="6" t="n"/>
       <c r="U305" s="6" t="n"/>
       <c r="V305" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306">
@@ -23041,162 +22988,160 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E306" s="13" t="inlineStr">
-        <is>
-          <t>33141 Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 V.1</t>
-        </is>
-      </c>
-      <c r="F306" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G306" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H306" s="3" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I306" s="4" t="n">
-        <v>1093</v>
-      </c>
-      <c r="J306" s="14" t="n">
-        <v>122</v>
+      <c r="E306" s="15" t="inlineStr">
+        <is>
+          <t>33141П Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 ПОЛИР. V.1.P</t>
+        </is>
+      </c>
+      <c r="F306" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G306" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H306" s="16" t="inlineStr">
+        <is>
+          <t>Версия 1.P</t>
+        </is>
+      </c>
+      <c r="I306" s="17" t="n">
+        <v>221</v>
+      </c>
+      <c r="J306" s="18" t="n">
+        <v>8</v>
       </c>
       <c r="K306" s="4" t="n">
-        <v>906</v>
+        <v>185</v>
       </c>
       <c r="L306" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M306" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N306" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O306" s="4" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="P306" s="4" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="Q306" s="4" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="R306" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S306" s="5" t="inlineStr"/>
       <c r="T306" s="6" t="n"/>
       <c r="U306" s="6" t="n"/>
-      <c r="V306" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V306" s="4" t="n"/>
     </row>
     <row r="307">
-      <c r="A307" s="3" t="inlineStr">
-        <is>
-          <t>Формирователь десны</t>
-        </is>
-      </c>
-      <c r="B307" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C307" s="3" t="inlineStr">
-        <is>
-          <t>Osstem Implant</t>
-        </is>
-      </c>
-      <c r="D307" s="3" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="E307" s="15" t="inlineStr">
-        <is>
-          <t>33141П Формирователь десны LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4 H=4.5 ПОЛИР. V.1.P</t>
-        </is>
-      </c>
-      <c r="F307" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G307" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H307" s="16" t="inlineStr">
-        <is>
-          <t>Версия 1.P</t>
-        </is>
-      </c>
-      <c r="I307" s="17" t="n">
-        <v>221</v>
-      </c>
-      <c r="J307" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="K307" s="4" t="n">
-        <v>185</v>
-      </c>
-      <c r="L307" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M307" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N307" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O307" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P307" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q307" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R307" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="S307" s="5" t="inlineStr"/>
-      <c r="T307" s="6" t="n"/>
-      <c r="U307" s="6" t="n"/>
-      <c r="V307" s="4" t="n"/>
+      <c r="A307" s="7" t="n"/>
+      <c r="B307" s="7" t="n"/>
+      <c r="C307" s="7" t="n"/>
+      <c r="D307" s="7" t="n"/>
+      <c r="E307" s="7" t="n"/>
+      <c r="F307" s="7" t="n"/>
+      <c r="G307" s="7" t="n"/>
+      <c r="H307" s="7" t="n"/>
+      <c r="I307" s="7" t="n"/>
+      <c r="J307" s="7" t="n"/>
+      <c r="K307" s="7" t="n"/>
+      <c r="L307" s="7" t="n"/>
+      <c r="M307" s="7" t="n"/>
+      <c r="N307" s="7" t="n"/>
+      <c r="O307" s="7" t="n"/>
+      <c r="P307" s="7" t="n"/>
+      <c r="Q307" s="7" t="n"/>
+      <c r="R307" s="7" t="n"/>
+      <c r="S307" s="7" t="n"/>
+      <c r="T307" s="8" t="n"/>
+      <c r="U307" s="8" t="n"/>
+      <c r="V307" s="7" t="n"/>
     </row>
     <row r="308">
-      <c r="A308" s="7" t="n"/>
-      <c r="B308" s="7" t="n"/>
-      <c r="C308" s="7" t="n"/>
-      <c r="D308" s="7" t="n"/>
-      <c r="E308" s="7" t="n"/>
-      <c r="F308" s="7" t="n"/>
-      <c r="G308" s="7" t="n"/>
-      <c r="H308" s="7" t="n"/>
-      <c r="I308" s="7" t="n"/>
-      <c r="J308" s="7" t="n"/>
-      <c r="K308" s="7" t="n"/>
-      <c r="L308" s="7" t="n"/>
-      <c r="M308" s="7" t="n"/>
-      <c r="N308" s="7" t="n"/>
-      <c r="O308" s="7" t="n"/>
-      <c r="P308" s="7" t="n"/>
-      <c r="Q308" s="7" t="n"/>
-      <c r="R308" s="7" t="n"/>
-      <c r="S308" s="7" t="n"/>
-      <c r="T308" s="8" t="n"/>
-      <c r="U308" s="8" t="n"/>
-      <c r="V308" s="7" t="n"/>
+      <c r="A308" s="3" t="inlineStr">
+        <is>
+          <t>Формирователь десны</t>
+        </is>
+      </c>
+      <c r="B308" s="3" t="inlineStr">
+        <is>
+          <t>Аналог оригинала</t>
+        </is>
+      </c>
+      <c r="C308" s="3" t="inlineStr">
+        <is>
+          <t>Sky Bredent</t>
+        </is>
+      </c>
+      <c r="D308" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E308" s="3" t="inlineStr">
+        <is>
+          <t>33120 Формирователь десны LM (копия оригинала) Sky Bredent D=5.7 H=4 (арт. SKYEMG04) V.1</t>
+        </is>
+      </c>
+      <c r="F308" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G308" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H308" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I308" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="J308" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L308" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="M308" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O308" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P308" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q308" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S308" s="5" t="inlineStr"/>
+      <c r="T308" s="6" t="n"/>
+      <c r="U308" s="6" t="n"/>
+      <c r="V308" s="4" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="3" t="inlineStr">
@@ -23221,7 +23166,7 @@
       </c>
       <c r="E309" s="3" t="inlineStr">
         <is>
-          <t>33120 Формирователь десны LM (копия оригинала) Sky Bredent D=5.7 H=4 (арт. SKYEMG04) V.1</t>
+          <t>33120П Формирователь десны LM (копия оригинала) Sky Bredent D=5.7 H=4 (арт. SKYEMG04) ПОЛИР. V.1.P</t>
         </is>
       </c>
       <c r="F309" s="3" t="inlineStr">
@@ -23236,20 +23181,20 @@
       </c>
       <c r="H309" s="3" t="inlineStr">
         <is>
-          <t>Версия 1</t>
+          <t>Версия 1.P</t>
         </is>
       </c>
       <c r="I309" s="4" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="J309" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K309" s="4" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L309" s="4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M309" s="4" t="n">
         <v>0</v>
@@ -23258,10 +23203,10 @@
         <v>0</v>
       </c>
       <c r="O309" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P309" s="4" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="Q309" s="4" t="n">
         <v>0</v>
@@ -23275,104 +23220,104 @@
       <c r="V309" s="4" t="n"/>
     </row>
     <row r="310">
-      <c r="A310" s="3" t="inlineStr">
-        <is>
-          <t>Формирователь десны</t>
-        </is>
-      </c>
-      <c r="B310" s="3" t="inlineStr">
-        <is>
-          <t>Аналог оригинала</t>
-        </is>
-      </c>
-      <c r="C310" s="3" t="inlineStr">
-        <is>
-          <t>Sky Bredent</t>
-        </is>
-      </c>
-      <c r="D310" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E310" s="3" t="inlineStr">
-        <is>
-          <t>33120П Формирователь десны LM (копия оригинала) Sky Bredent D=5.7 H=4 (арт. SKYEMG04) ПОЛИР. V.1.P</t>
-        </is>
-      </c>
-      <c r="F310" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G310" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H310" s="3" t="inlineStr">
-        <is>
-          <t>Версия 1.P</t>
-        </is>
-      </c>
-      <c r="I310" s="4" t="n">
-        <v>93</v>
-      </c>
-      <c r="J310" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K310" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="L310" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M310" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N310" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O310" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P310" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="Q310" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R310" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S310" s="5" t="inlineStr"/>
-      <c r="T310" s="6" t="n"/>
-      <c r="U310" s="6" t="n"/>
-      <c r="V310" s="4" t="n"/>
+      <c r="A310" s="7" t="n"/>
+      <c r="B310" s="7" t="n"/>
+      <c r="C310" s="7" t="n"/>
+      <c r="D310" s="7" t="n"/>
+      <c r="E310" s="7" t="n"/>
+      <c r="F310" s="7" t="n"/>
+      <c r="G310" s="7" t="n"/>
+      <c r="H310" s="7" t="n"/>
+      <c r="I310" s="7" t="n"/>
+      <c r="J310" s="7" t="n"/>
+      <c r="K310" s="7" t="n"/>
+      <c r="L310" s="7" t="n"/>
+      <c r="M310" s="7" t="n"/>
+      <c r="N310" s="7" t="n"/>
+      <c r="O310" s="7" t="n"/>
+      <c r="P310" s="7" t="n"/>
+      <c r="Q310" s="7" t="n"/>
+      <c r="R310" s="7" t="n"/>
+      <c r="S310" s="7" t="n"/>
+      <c r="T310" s="8" t="n"/>
+      <c r="U310" s="8" t="n"/>
+      <c r="V310" s="7" t="n"/>
     </row>
     <row r="311">
-      <c r="A311" s="7" t="n"/>
-      <c r="B311" s="7" t="n"/>
-      <c r="C311" s="7" t="n"/>
-      <c r="D311" s="7" t="n"/>
-      <c r="E311" s="7" t="n"/>
-      <c r="F311" s="7" t="n"/>
-      <c r="G311" s="7" t="n"/>
-      <c r="H311" s="7" t="n"/>
-      <c r="I311" s="7" t="n"/>
-      <c r="J311" s="7" t="n"/>
-      <c r="K311" s="7" t="n"/>
-      <c r="L311" s="7" t="n"/>
-      <c r="M311" s="7" t="n"/>
-      <c r="N311" s="7" t="n"/>
-      <c r="O311" s="7" t="n"/>
-      <c r="P311" s="7" t="n"/>
-      <c r="Q311" s="7" t="n"/>
-      <c r="R311" s="7" t="n"/>
-      <c r="S311" s="7" t="n"/>
-      <c r="T311" s="8" t="n"/>
-      <c r="U311" s="8" t="n"/>
-      <c r="V311" s="7" t="n"/>
+      <c r="A311" s="3" t="inlineStr">
+        <is>
+          <t>Формирователь десны</t>
+        </is>
+      </c>
+      <c r="B311" s="3" t="inlineStr">
+        <is>
+          <t>Аналог оригинала</t>
+        </is>
+      </c>
+      <c r="C311" s="3" t="inlineStr">
+        <is>
+          <t>Straumann Bone Level</t>
+        </is>
+      </c>
+      <c r="D311" s="3" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="E311" s="9" t="inlineStr">
+        <is>
+          <t>33172 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.6 H=2 (арт. 024.2222) V.1</t>
+        </is>
+      </c>
+      <c r="F311" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G311" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H311" s="10" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I311" s="11" t="n">
+        <v>805</v>
+      </c>
+      <c r="J311" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="K311" s="4" t="n">
+        <v>715</v>
+      </c>
+      <c r="L311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="P311" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q311" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="R311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S311" s="5" t="inlineStr"/>
+      <c r="T311" s="6" t="n"/>
+      <c r="U311" s="6" t="n"/>
+      <c r="V311" s="4" t="n"/>
     </row>
     <row r="312">
       <c r="A312" s="3" t="inlineStr">
@@ -23395,61 +23340,61 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="E312" s="9" t="inlineStr">
-        <is>
-          <t>33172 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.6 H=2 (арт. 024.2222) V.1</t>
-        </is>
-      </c>
-      <c r="F312" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G312" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H312" s="10" t="inlineStr">
+      <c r="E312" s="13" t="inlineStr">
+        <is>
+          <t>33173 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=5 (арт. 024.2246) V.1</t>
+        </is>
+      </c>
+      <c r="F312" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G312" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H312" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I312" s="11" t="n">
-        <v>817</v>
-      </c>
-      <c r="J312" s="12" t="n">
-        <v>5</v>
+      <c r="I312" s="4" t="n">
+        <v>611</v>
+      </c>
+      <c r="J312" s="14" t="n">
+        <v>19</v>
       </c>
       <c r="K312" s="4" t="n">
-        <v>715</v>
+        <v>524</v>
       </c>
       <c r="L312" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M312" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N312" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O312" s="4" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P312" s="4" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="Q312" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R312" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S312" s="5" t="inlineStr"/>
       <c r="T312" s="6" t="n"/>
       <c r="U312" s="6" t="n"/>
       <c r="V312" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -23475,7 +23420,7 @@
       </c>
       <c r="E313" s="13" t="inlineStr">
         <is>
-          <t>33173 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=5 (арт. 024.2246) V.1</t>
+          <t>33174 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.6 H=3.5 (арт. 024.2224) V.1</t>
         </is>
       </c>
       <c r="F313" s="3" t="inlineStr">
@@ -23494,31 +23439,31 @@
         </is>
       </c>
       <c r="I313" s="4" t="n">
-        <v>615</v>
+        <v>858</v>
       </c>
       <c r="J313" s="14" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K313" s="4" t="n">
-        <v>524</v>
+        <v>770</v>
       </c>
       <c r="L313" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M313" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N313" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O313" s="4" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="P313" s="4" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="Q313" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R313" s="4" t="n">
         <v>2</v>
@@ -23526,9 +23471,7 @@
       <c r="S313" s="5" t="inlineStr"/>
       <c r="T313" s="6" t="n"/>
       <c r="U313" s="6" t="n"/>
-      <c r="V313" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="V313" s="4" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="3" t="inlineStr">
@@ -23553,7 +23496,7 @@
       </c>
       <c r="E314" s="13" t="inlineStr">
         <is>
-          <t>33174 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.6 H=3.5 (арт. 024.2224) V.1</t>
+          <t>33178 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=2 (арт. 024.2242) V.1</t>
         </is>
       </c>
       <c r="F314" s="3" t="inlineStr">
@@ -23572,13 +23515,13 @@
         </is>
       </c>
       <c r="I314" s="4" t="n">
-        <v>865</v>
+        <v>630</v>
       </c>
       <c r="J314" s="14" t="n">
         <v>2</v>
       </c>
       <c r="K314" s="4" t="n">
-        <v>770</v>
+        <v>559</v>
       </c>
       <c r="L314" s="4" t="n">
         <v>0</v>
@@ -23590,23 +23533,21 @@
         <v>0</v>
       </c>
       <c r="O314" s="4" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="P314" s="4" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q314" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="R314" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="S314" s="5" t="inlineStr"/>
       <c r="T314" s="6" t="n"/>
       <c r="U314" s="6" t="n"/>
-      <c r="V314" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V314" s="4" t="n"/>
     </row>
     <row r="315">
       <c r="A315" s="3" t="inlineStr">
@@ -23631,7 +23572,7 @@
       </c>
       <c r="E315" s="13" t="inlineStr">
         <is>
-          <t>33178 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=2 (арт. 024.2242) V.1</t>
+          <t>33179 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.3 H=3.5 (арт. 024.2234) V.1</t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
@@ -23650,13 +23591,13 @@
         </is>
       </c>
       <c r="I315" s="4" t="n">
-        <v>630</v>
+        <v>901</v>
       </c>
       <c r="J315" s="14" t="n">
         <v>2</v>
       </c>
       <c r="K315" s="4" t="n">
-        <v>559</v>
+        <v>822</v>
       </c>
       <c r="L315" s="4" t="n">
         <v>0</v>
@@ -23668,16 +23609,16 @@
         <v>0</v>
       </c>
       <c r="O315" s="4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P315" s="4" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q315" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R315" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S315" s="5" t="inlineStr"/>
       <c r="T315" s="6" t="n"/>
@@ -23707,7 +23648,7 @@
       </c>
       <c r="E316" s="13" t="inlineStr">
         <is>
-          <t>33179 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.3 H=3.5 (арт. 024.2234) V.1</t>
+          <t>33180 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.6 H=5 (арт. 024.2226) V.1</t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
@@ -23726,13 +23667,13 @@
         </is>
       </c>
       <c r="I316" s="4" t="n">
-        <v>903</v>
+        <v>652</v>
       </c>
       <c r="J316" s="14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K316" s="4" t="n">
-        <v>822</v>
+        <v>505</v>
       </c>
       <c r="L316" s="4" t="n">
         <v>0</v>
@@ -23744,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="O316" s="4" t="n">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="P316" s="4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q316" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R316" s="4" t="n">
         <v>0</v>
@@ -23783,7 +23724,7 @@
       </c>
       <c r="E317" s="13" t="inlineStr">
         <is>
-          <t>33180 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.6 H=5 (арт. 024.2226) V.1</t>
+          <t>33181 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=3.5 (арт. 024.2244) V.1</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
@@ -23802,13 +23743,13 @@
         </is>
       </c>
       <c r="I317" s="4" t="n">
-        <v>652</v>
+        <v>790</v>
       </c>
       <c r="J317" s="14" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K317" s="4" t="n">
-        <v>505</v>
+        <v>704</v>
       </c>
       <c r="L317" s="4" t="n">
         <v>0</v>
@@ -23820,16 +23761,16 @@
         <v>0</v>
       </c>
       <c r="O317" s="4" t="n">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="P317" s="4" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q317" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R317" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S317" s="5" t="inlineStr"/>
       <c r="T317" s="6" t="n"/>
@@ -23857,34 +23798,34 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="E318" s="13" t="inlineStr">
-        <is>
-          <t>33181 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=4.8 H=3.5 (арт. 024.2244) V.1</t>
-        </is>
-      </c>
-      <c r="F318" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G318" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H318" s="3" t="inlineStr">
+      <c r="E318" s="15" t="inlineStr">
+        <is>
+          <t>33185 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.3 H=5 (арт. 024.2236) V.1</t>
+        </is>
+      </c>
+      <c r="F318" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G318" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H318" s="16" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I318" s="4" t="n">
-        <v>795</v>
-      </c>
-      <c r="J318" s="14" t="n">
-        <v>9</v>
+      <c r="I318" s="17" t="n">
+        <v>460</v>
+      </c>
+      <c r="J318" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="K318" s="4" t="n">
-        <v>704</v>
+        <v>409</v>
       </c>
       <c r="L318" s="4" t="n">
         <v>0</v>
@@ -23896,23 +23837,21 @@
         <v>0</v>
       </c>
       <c r="O318" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="P318" s="4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q318" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R318" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S318" s="5" t="inlineStr"/>
       <c r="T318" s="6" t="n"/>
       <c r="U318" s="6" t="n"/>
-      <c r="V318" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V318" s="4" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
@@ -23932,58 +23871,58 @@
       </c>
       <c r="D319" s="3" t="inlineStr">
         <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="E319" s="15" t="inlineStr">
-        <is>
-          <t>33185 Формирователь десны LM (копия оригинала) Straumann Bone Level NC (3.3) D=3.3 H=5 (арт. 024.2236) V.1</t>
-        </is>
-      </c>
-      <c r="F319" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G319" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H319" s="16" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I319" s="17" t="n">
-        <v>460</v>
-      </c>
-      <c r="J319" s="18" t="n">
-        <v>0</v>
+          <t>RC</t>
+        </is>
+      </c>
+      <c r="E319" s="9" t="inlineStr">
+        <is>
+          <t>33175 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 H=4 (арт. 024.4244) V.1</t>
+        </is>
+      </c>
+      <c r="F319" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G319" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H319" s="10" t="inlineStr">
+        <is>
+          <t>Версия1</t>
+        </is>
+      </c>
+      <c r="I319" s="11" t="n">
+        <v>541</v>
+      </c>
+      <c r="J319" s="12" t="n">
+        <v>46</v>
       </c>
       <c r="K319" s="4" t="n">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="L319" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M319" s="4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N319" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O319" s="4" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="P319" s="4" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q319" s="4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="R319" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S319" s="5" t="inlineStr"/>
       <c r="T319" s="6" t="n"/>
@@ -24011,55 +23950,55 @@
           <t>RC</t>
         </is>
       </c>
-      <c r="E320" s="9" t="inlineStr">
-        <is>
-          <t>33175 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 H=4 (арт. 024.4244) V.1</t>
-        </is>
-      </c>
-      <c r="F320" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G320" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H320" s="10" t="inlineStr">
-        <is>
-          <t>Версия1</t>
-        </is>
-      </c>
-      <c r="I320" s="11" t="n">
-        <v>563</v>
-      </c>
-      <c r="J320" s="12" t="n">
-        <v>24</v>
+      <c r="E320" s="13" t="inlineStr">
+        <is>
+          <t>33176 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.5 H=4 (арт. 024.4224) V.1</t>
+        </is>
+      </c>
+      <c r="F320" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G320" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H320" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I320" s="4" t="n">
+        <v>705</v>
+      </c>
+      <c r="J320" s="14" t="n">
+        <v>18</v>
       </c>
       <c r="K320" s="4" t="n">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="L320" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M320" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N320" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O320" s="4" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="P320" s="4" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="Q320" s="4" t="n">
         <v>12</v>
       </c>
       <c r="R320" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S320" s="5" t="inlineStr"/>
       <c r="T320" s="6" t="n"/>
@@ -24089,7 +24028,7 @@
       </c>
       <c r="E321" s="13" t="inlineStr">
         <is>
-          <t>33176 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.5 H=4 (арт. 024.4224) V.1</t>
+          <t>33182 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 H=6 (арт. 024.4246) V.1</t>
         </is>
       </c>
       <c r="F321" s="3" t="inlineStr">
@@ -24108,41 +24047,41 @@
         </is>
       </c>
       <c r="I321" s="4" t="n">
-        <v>712</v>
+        <v>407</v>
       </c>
       <c r="J321" s="14" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="K321" s="4" t="n">
-        <v>556</v>
+        <v>347</v>
       </c>
       <c r="L321" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M321" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N321" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O321" s="4" t="n">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="P321" s="4" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="Q321" s="4" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="R321" s="4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="S321" s="5" t="inlineStr"/>
-      <c r="T321" s="6" t="n"/>
+      <c r="T321" s="6" t="n">
+        <v>200</v>
+      </c>
       <c r="U321" s="6" t="n"/>
-      <c r="V321" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="V321" s="4" t="n"/>
     </row>
     <row r="322">
       <c r="A322" s="3" t="inlineStr">
@@ -24167,7 +24106,7 @@
       </c>
       <c r="E322" s="13" t="inlineStr">
         <is>
-          <t>33182 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 H=6 (арт. 024.4246) V.1</t>
+          <t>33183 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.5 H=6 (арт. 024.4226) V.1</t>
         </is>
       </c>
       <c r="F322" s="3" t="inlineStr">
@@ -24186,13 +24125,13 @@
         </is>
       </c>
       <c r="I322" s="4" t="n">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="J322" s="14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K322" s="4" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="L322" s="4" t="n">
         <v>0</v>
@@ -24204,21 +24143,19 @@
         <v>0</v>
       </c>
       <c r="O322" s="4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P322" s="4" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q322" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R322" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S322" s="5" t="inlineStr"/>
-      <c r="T322" s="6" t="n">
-        <v>313</v>
-      </c>
+      <c r="T322" s="6" t="n"/>
       <c r="U322" s="6" t="n"/>
       <c r="V322" s="4" t="n"/>
     </row>
@@ -24245,7 +24182,7 @@
       </c>
       <c r="E323" s="13" t="inlineStr">
         <is>
-          <t>33183 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.5 H=6 (арт. 024.4226) V.1</t>
+          <t>33184 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 H=2 (арт. 024.4242) V.1</t>
         </is>
       </c>
       <c r="F323" s="3" t="inlineStr">
@@ -24264,13 +24201,13 @@
         </is>
       </c>
       <c r="I323" s="4" t="n">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="J323" s="14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K323" s="4" t="n">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="L323" s="4" t="n">
         <v>0</v>
@@ -24282,16 +24219,16 @@
         <v>0</v>
       </c>
       <c r="O323" s="4" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="P323" s="4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q323" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R323" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S323" s="5" t="inlineStr"/>
       <c r="T323" s="6" t="n"/>
@@ -24321,7 +24258,7 @@
       </c>
       <c r="E324" s="13" t="inlineStr">
         <is>
-          <t>33184 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=6 H=2 (арт. 024.4242) V.1</t>
+          <t>33290 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.4 H=4 (арт. 024.4234S) V.1</t>
         </is>
       </c>
       <c r="F324" s="3" t="inlineStr">
@@ -24340,13 +24277,13 @@
         </is>
       </c>
       <c r="I324" s="4" t="n">
-        <v>259</v>
+        <v>735</v>
       </c>
       <c r="J324" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K324" s="4" t="n">
-        <v>211</v>
+        <v>615</v>
       </c>
       <c r="L324" s="4" t="n">
         <v>0</v>
@@ -24358,21 +24295,23 @@
         <v>0</v>
       </c>
       <c r="O324" s="4" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="P324" s="4" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Q324" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R324" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S324" s="5" t="inlineStr"/>
       <c r="T324" s="6" t="n"/>
       <c r="U324" s="6" t="n"/>
-      <c r="V324" s="4" t="n"/>
+      <c r="V324" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="3" t="inlineStr">
@@ -24395,52 +24334,52 @@
           <t>RC</t>
         </is>
       </c>
-      <c r="E325" s="13" t="inlineStr">
-        <is>
-          <t>33290 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.4 H=4 (арт. 024.4234S) V.1</t>
-        </is>
-      </c>
-      <c r="F325" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G325" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H325" s="3" t="inlineStr">
+      <c r="E325" s="15" t="inlineStr">
+        <is>
+          <t>33291 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.7 H=6 (арт. 024.4236S) V.1</t>
+        </is>
+      </c>
+      <c r="F325" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G325" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H325" s="16" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I325" s="4" t="n">
-        <v>736</v>
-      </c>
-      <c r="J325" s="14" t="n">
-        <v>2</v>
+      <c r="I325" s="17" t="n">
+        <v>865</v>
+      </c>
+      <c r="J325" s="18" t="n">
+        <v>27</v>
       </c>
       <c r="K325" s="4" t="n">
-        <v>615</v>
+        <v>758</v>
       </c>
       <c r="L325" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M325" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N325" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O325" s="4" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P325" s="4" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q325" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R325" s="4" t="n">
         <v>0</v>
@@ -24448,109 +24387,109 @@
       <c r="S325" s="5" t="inlineStr"/>
       <c r="T325" s="6" t="n"/>
       <c r="U325" s="6" t="n"/>
-      <c r="V325" s="4" t="n"/>
+      <c r="V325" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="326">
-      <c r="A326" s="3" t="inlineStr">
-        <is>
-          <t>Формирователь десны</t>
-        </is>
-      </c>
-      <c r="B326" s="3" t="inlineStr">
-        <is>
-          <t>Аналог оригинала</t>
-        </is>
-      </c>
-      <c r="C326" s="3" t="inlineStr">
-        <is>
-          <t>Straumann Bone Level</t>
-        </is>
-      </c>
-      <c r="D326" s="3" t="inlineStr">
-        <is>
-          <t>RC</t>
-        </is>
-      </c>
-      <c r="E326" s="15" t="inlineStr">
-        <is>
-          <t>33291 Формирователь десны LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) D=4.7 H=6 (арт. 024.4236S) V.1</t>
-        </is>
-      </c>
-      <c r="F326" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G326" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H326" s="16" t="inlineStr">
+      <c r="A326" s="7" t="n"/>
+      <c r="B326" s="7" t="n"/>
+      <c r="C326" s="7" t="n"/>
+      <c r="D326" s="7" t="n"/>
+      <c r="E326" s="7" t="n"/>
+      <c r="F326" s="7" t="n"/>
+      <c r="G326" s="7" t="n"/>
+      <c r="H326" s="7" t="n"/>
+      <c r="I326" s="7" t="n"/>
+      <c r="J326" s="7" t="n"/>
+      <c r="K326" s="7" t="n"/>
+      <c r="L326" s="7" t="n"/>
+      <c r="M326" s="7" t="n"/>
+      <c r="N326" s="7" t="n"/>
+      <c r="O326" s="7" t="n"/>
+      <c r="P326" s="7" t="n"/>
+      <c r="Q326" s="7" t="n"/>
+      <c r="R326" s="7" t="n"/>
+      <c r="S326" s="7" t="n"/>
+      <c r="T326" s="8" t="n"/>
+      <c r="U326" s="8" t="n"/>
+      <c r="V326" s="7" t="n"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="inlineStr">
+        <is>
+          <t>Формирователь десны</t>
+        </is>
+      </c>
+      <c r="B327" s="3" t="inlineStr">
+        <is>
+          <t>Аналог оригинала</t>
+        </is>
+      </c>
+      <c r="C327" s="3" t="inlineStr">
+        <is>
+          <t>Straumann SynOcta</t>
+        </is>
+      </c>
+      <c r="D327" s="3" t="inlineStr">
+        <is>
+          <t>RN (4.8)</t>
+        </is>
+      </c>
+      <c r="E327" s="3" t="inlineStr">
+        <is>
+          <t>34092 Формирователь десны LM (копия оригинала) Straumann SynOcta RN (4.8) D=5.5 H=2 (арт. 048.033) V.1</t>
+        </is>
+      </c>
+      <c r="F327" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G327" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H327" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I326" s="17" t="n">
-        <v>881</v>
-      </c>
-      <c r="J326" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="K326" s="4" t="n">
-        <v>765</v>
-      </c>
-      <c r="L326" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M326" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="N326" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O326" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="P326" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q326" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R326" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S326" s="5" t="inlineStr"/>
-      <c r="T326" s="6" t="n"/>
-      <c r="U326" s="6" t="n"/>
-      <c r="V326" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="7" t="n"/>
-      <c r="B327" s="7" t="n"/>
-      <c r="C327" s="7" t="n"/>
-      <c r="D327" s="7" t="n"/>
-      <c r="E327" s="7" t="n"/>
-      <c r="F327" s="7" t="n"/>
-      <c r="G327" s="7" t="n"/>
-      <c r="H327" s="7" t="n"/>
-      <c r="I327" s="7" t="n"/>
-      <c r="J327" s="7" t="n"/>
-      <c r="K327" s="7" t="n"/>
-      <c r="L327" s="7" t="n"/>
-      <c r="M327" s="7" t="n"/>
-      <c r="N327" s="7" t="n"/>
-      <c r="O327" s="7" t="n"/>
-      <c r="P327" s="7" t="n"/>
-      <c r="Q327" s="7" t="n"/>
-      <c r="R327" s="7" t="n"/>
-      <c r="S327" s="7" t="n"/>
-      <c r="T327" s="8" t="n"/>
-      <c r="U327" s="8" t="n"/>
-      <c r="V327" s="7" t="n"/>
+      <c r="I327" s="4" t="n">
+        <v>566</v>
+      </c>
+      <c r="J327" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K327" s="4" t="n">
+        <v>459</v>
+      </c>
+      <c r="L327" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O327" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="P327" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q327" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R327" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S327" s="5" t="inlineStr"/>
+      <c r="T327" s="6" t="n"/>
+      <c r="U327" s="6" t="n"/>
+      <c r="V327" s="4" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="3" t="inlineStr">
@@ -24575,7 +24514,7 @@
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>34092 Формирователь десны LM (копия оригинала) Straumann SynOcta RN (4.8) D=5.5 H=2 (арт. 048.033) V.1</t>
+          <t>34093 Формирователь десны LM (копия оригинала) Straumann SynOcta RN (4.8) D=5.5 H=3 (арт. 048.034) V.1</t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
@@ -24594,31 +24533,31 @@
         </is>
       </c>
       <c r="I328" s="4" t="n">
-        <v>566</v>
+        <v>684</v>
       </c>
       <c r="J328" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K328" s="4" t="n">
-        <v>459</v>
+        <v>550</v>
       </c>
       <c r="L328" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M328" s="4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N328" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O328" s="4" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P328" s="4" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q328" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R328" s="4" t="n">
         <v>0</v>
@@ -24651,7 +24590,7 @@
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t>34093 Формирователь десны LM (копия оригинала) Straumann SynOcta RN (4.8) D=5.5 H=3 (арт. 048.034) V.1</t>
+          <t>34094 Формирователь десны LM (копия оригинала) Straumann SynOcta RN (4.8) D=5.5 H=4.5 (арт. 048.037) V.1</t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
@@ -24670,34 +24609,34 @@
         </is>
       </c>
       <c r="I329" s="4" t="n">
-        <v>684</v>
+        <v>493</v>
       </c>
       <c r="J329" s="4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K329" s="4" t="n">
-        <v>550</v>
+        <v>348</v>
       </c>
       <c r="L329" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M329" s="4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N329" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O329" s="4" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="P329" s="4" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q329" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R329" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S329" s="5" t="inlineStr"/>
       <c r="T329" s="6" t="n"/>
@@ -24705,104 +24644,104 @@
       <c r="V329" s="4" t="n"/>
     </row>
     <row r="330">
-      <c r="A330" s="3" t="inlineStr">
-        <is>
-          <t>Формирователь десны</t>
-        </is>
-      </c>
-      <c r="B330" s="3" t="inlineStr">
-        <is>
-          <t>Аналог оригинала</t>
-        </is>
-      </c>
-      <c r="C330" s="3" t="inlineStr">
-        <is>
-          <t>Straumann SynOcta</t>
-        </is>
-      </c>
-      <c r="D330" s="3" t="inlineStr">
-        <is>
-          <t>RN (4.8)</t>
-        </is>
-      </c>
-      <c r="E330" s="3" t="inlineStr">
-        <is>
-          <t>34094 Формирователь десны LM (копия оригинала) Straumann SynOcta RN (4.8) D=5.5 H=4.5 (арт. 048.037) V.1</t>
-        </is>
-      </c>
-      <c r="F330" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G330" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H330" s="3" t="inlineStr">
+      <c r="A330" s="7" t="n"/>
+      <c r="B330" s="7" t="n"/>
+      <c r="C330" s="7" t="n"/>
+      <c r="D330" s="7" t="n"/>
+      <c r="E330" s="7" t="n"/>
+      <c r="F330" s="7" t="n"/>
+      <c r="G330" s="7" t="n"/>
+      <c r="H330" s="7" t="n"/>
+      <c r="I330" s="7" t="n"/>
+      <c r="J330" s="7" t="n"/>
+      <c r="K330" s="7" t="n"/>
+      <c r="L330" s="7" t="n"/>
+      <c r="M330" s="7" t="n"/>
+      <c r="N330" s="7" t="n"/>
+      <c r="O330" s="7" t="n"/>
+      <c r="P330" s="7" t="n"/>
+      <c r="Q330" s="7" t="n"/>
+      <c r="R330" s="7" t="n"/>
+      <c r="S330" s="7" t="n"/>
+      <c r="T330" s="8" t="n"/>
+      <c r="U330" s="8" t="n"/>
+      <c r="V330" s="7" t="n"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="inlineStr">
+        <is>
+          <t>Формирователь десны</t>
+        </is>
+      </c>
+      <c r="B331" s="3" t="inlineStr">
+        <is>
+          <t>Аналог оригинала</t>
+        </is>
+      </c>
+      <c r="C331" s="3" t="inlineStr">
+        <is>
+          <t>Xive</t>
+        </is>
+      </c>
+      <c r="D331" s="3" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="E331" s="9" t="inlineStr">
+        <is>
+          <t>33286 Формирователь десны LM (копия оригинала) Xive 3.4 D=3.4 H=2 (арт. 45-1432) V.1</t>
+        </is>
+      </c>
+      <c r="F331" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G331" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H331" s="10" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I330" s="4" t="n">
-        <v>493</v>
-      </c>
-      <c r="J330" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="K330" s="4" t="n">
-        <v>368</v>
-      </c>
-      <c r="L330" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M330" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="N330" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O330" s="4" t="n">
-        <v>86</v>
-      </c>
-      <c r="P330" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q330" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="R330" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S330" s="5" t="inlineStr"/>
-      <c r="T330" s="6" t="n"/>
-      <c r="U330" s="6" t="n"/>
-      <c r="V330" s="4" t="n"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="7" t="n"/>
-      <c r="B331" s="7" t="n"/>
-      <c r="C331" s="7" t="n"/>
-      <c r="D331" s="7" t="n"/>
-      <c r="E331" s="7" t="n"/>
-      <c r="F331" s="7" t="n"/>
-      <c r="G331" s="7" t="n"/>
-      <c r="H331" s="7" t="n"/>
-      <c r="I331" s="7" t="n"/>
-      <c r="J331" s="7" t="n"/>
-      <c r="K331" s="7" t="n"/>
-      <c r="L331" s="7" t="n"/>
-      <c r="M331" s="7" t="n"/>
-      <c r="N331" s="7" t="n"/>
-      <c r="O331" s="7" t="n"/>
-      <c r="P331" s="7" t="n"/>
-      <c r="Q331" s="7" t="n"/>
-      <c r="R331" s="7" t="n"/>
-      <c r="S331" s="7" t="n"/>
-      <c r="T331" s="8" t="n"/>
-      <c r="U331" s="8" t="n"/>
-      <c r="V331" s="7" t="n"/>
+      <c r="I331" s="11" t="n">
+        <v>463</v>
+      </c>
+      <c r="J331" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" s="4" t="n">
+        <v>373</v>
+      </c>
+      <c r="L331" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O331" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P331" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q331" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S331" s="5" t="inlineStr"/>
+      <c r="T331" s="6" t="n"/>
+      <c r="U331" s="6" t="n"/>
+      <c r="V331" s="4" t="n"/>
     </row>
     <row r="332">
       <c r="A332" s="3" t="inlineStr">
@@ -24825,34 +24764,34 @@
           <t>3.4</t>
         </is>
       </c>
-      <c r="E332" s="9" t="inlineStr">
-        <is>
-          <t>33286 Формирователь десны LM (копия оригинала) Xive 3.4 D=3.4 H=2 (арт. 45-1432) V.1</t>
-        </is>
-      </c>
-      <c r="F332" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G332" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H332" s="10" t="inlineStr">
+      <c r="E332" s="13" t="inlineStr">
+        <is>
+          <t>33287 Формирователь десны LM (копия оригинала) Xive 3.4 D=3.4 H=3 (арт. 45-1433) V.1</t>
+        </is>
+      </c>
+      <c r="F332" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G332" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H332" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I332" s="11" t="n">
-        <v>463</v>
-      </c>
-      <c r="J332" s="12" t="n">
+      <c r="I332" s="4" t="n">
+        <v>579</v>
+      </c>
+      <c r="J332" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K332" s="4" t="n">
-        <v>373</v>
+        <v>497</v>
       </c>
       <c r="L332" s="4" t="n">
         <v>0</v>
@@ -24864,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="O332" s="4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P332" s="4" t="n">
         <v>50</v>
@@ -24901,46 +24840,46 @@
           <t>3.4</t>
         </is>
       </c>
-      <c r="E333" s="13" t="inlineStr">
-        <is>
-          <t>33287 Формирователь десны LM (копия оригинала) Xive 3.4 D=3.4 H=3 (арт. 45-1433) V.1</t>
-        </is>
-      </c>
-      <c r="F333" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G333" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H333" s="3" t="inlineStr">
+      <c r="E333" s="15" t="inlineStr">
+        <is>
+          <t>33288 Формирователь десны LM (копия оригинала) Xive 3.4 D=3.4 H=5 (арт. 45-1435) V.1</t>
+        </is>
+      </c>
+      <c r="F333" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G333" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H333" s="16" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I333" s="4" t="n">
-        <v>579</v>
-      </c>
-      <c r="J333" s="14" t="n">
-        <v>0</v>
+      <c r="I333" s="17" t="n">
+        <v>271</v>
+      </c>
+      <c r="J333" s="18" t="n">
+        <v>1</v>
       </c>
       <c r="K333" s="4" t="n">
-        <v>497</v>
+        <v>188</v>
       </c>
       <c r="L333" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M333" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N333" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O333" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P333" s="4" t="n">
         <v>50</v>
@@ -24974,49 +24913,49 @@
       </c>
       <c r="D334" s="3" t="inlineStr">
         <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="E334" s="15" t="inlineStr">
-        <is>
-          <t>33288 Формирователь десны LM (копия оригинала) Xive 3.4 D=3.4 H=5 (арт. 45-1435) V.1</t>
-        </is>
-      </c>
-      <c r="F334" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G334" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H334" s="16" t="inlineStr">
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E334" s="9" t="inlineStr">
+        <is>
+          <t>33281 Формирователь десны LM (копия оригинала) Xive 4.5 D=4.5 H=2 (арт. 45-1452) V.1</t>
+        </is>
+      </c>
+      <c r="F334" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G334" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H334" s="10" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I334" s="17" t="n">
-        <v>271</v>
-      </c>
-      <c r="J334" s="18" t="n">
-        <v>1</v>
+      <c r="I334" s="11" t="n">
+        <v>502</v>
+      </c>
+      <c r="J334" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="K334" s="4" t="n">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="L334" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M334" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N334" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O334" s="4" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P334" s="4" t="n">
         <v>50</v>
@@ -25053,34 +24992,34 @@
           <t>4.5</t>
         </is>
       </c>
-      <c r="E335" s="9" t="inlineStr">
-        <is>
-          <t>33281 Формирователь десны LM (копия оригинала) Xive 4.5 D=4.5 H=2 (арт. 45-1452) V.1</t>
-        </is>
-      </c>
-      <c r="F335" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G335" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H335" s="10" t="inlineStr">
+      <c r="E335" s="13" t="inlineStr">
+        <is>
+          <t>33282 Формирователь десны LM (копия оригинала) Xive 4.5 D=4.5 H=3 (арт. 45-1453) V.1</t>
+        </is>
+      </c>
+      <c r="F335" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G335" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H335" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I335" s="11" t="n">
-        <v>502</v>
-      </c>
-      <c r="J335" s="12" t="n">
+      <c r="I335" s="4" t="n">
+        <v>576</v>
+      </c>
+      <c r="J335" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K335" s="4" t="n">
-        <v>414</v>
+        <v>486</v>
       </c>
       <c r="L335" s="4" t="n">
         <v>0</v>
@@ -25092,7 +25031,7 @@
         <v>0</v>
       </c>
       <c r="O335" s="4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P335" s="4" t="n">
         <v>50</v>
@@ -25129,34 +25068,34 @@
           <t>4.5</t>
         </is>
       </c>
-      <c r="E336" s="13" t="inlineStr">
-        <is>
-          <t>33282 Формирователь десны LM (копия оригинала) Xive 4.5 D=4.5 H=3 (арт. 45-1453) V.1</t>
-        </is>
-      </c>
-      <c r="F336" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G336" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H336" s="3" t="inlineStr">
+      <c r="E336" s="15" t="inlineStr">
+        <is>
+          <t>33283 Формирователь десны LM (копия оригинала) Xive 4.5 D=5.3 H=5 (арт. 45-1455) V.1</t>
+        </is>
+      </c>
+      <c r="F336" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G336" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H336" s="16" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I336" s="4" t="n">
-        <v>576</v>
-      </c>
-      <c r="J336" s="14" t="n">
+      <c r="I336" s="17" t="n">
+        <v>539</v>
+      </c>
+      <c r="J336" s="18" t="n">
         <v>0</v>
       </c>
       <c r="K336" s="4" t="n">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="L336" s="4" t="n">
         <v>0</v>
@@ -25202,37 +25141,37 @@
       </c>
       <c r="D337" s="3" t="inlineStr">
         <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="E337" s="15" t="inlineStr">
-        <is>
-          <t>33283 Формирователь десны LM (копия оригинала) Xive 4.5 D=5.3 H=5 (арт. 45-1455) V.1</t>
-        </is>
-      </c>
-      <c r="F337" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G337" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H337" s="16" t="inlineStr">
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="E337" s="9" t="inlineStr">
+        <is>
+          <t>33284 Формирователь десны LM (копия оригинала) Xive 5.5 D=5.5 H=2 (арт. 45-1462) V.1</t>
+        </is>
+      </c>
+      <c r="F337" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G337" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H337" s="10" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I337" s="17" t="n">
-        <v>539</v>
-      </c>
-      <c r="J337" s="18" t="n">
+      <c r="I337" s="11" t="n">
+        <v>538</v>
+      </c>
+      <c r="J337" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K337" s="4" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L337" s="4" t="n">
         <v>0</v>
@@ -25281,34 +25220,34 @@
           <t>5.5</t>
         </is>
       </c>
-      <c r="E338" s="9" t="inlineStr">
-        <is>
-          <t>33284 Формирователь десны LM (копия оригинала) Xive 5.5 D=5.5 H=2 (арт. 45-1462) V.1</t>
-        </is>
-      </c>
-      <c r="F338" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G338" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H338" s="10" t="inlineStr">
+      <c r="E338" s="15" t="inlineStr">
+        <is>
+          <t>33285 Формирователь десны LM (копия оригинала) Xive 5.5 D=5.5 H=3 (арт. 45-1463) V.1</t>
+        </is>
+      </c>
+      <c r="F338" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G338" s="16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H338" s="16" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I338" s="11" t="n">
-        <v>538</v>
-      </c>
-      <c r="J338" s="12" t="n">
+      <c r="I338" s="17" t="n">
+        <v>292</v>
+      </c>
+      <c r="J338" s="18" t="n">
         <v>0</v>
       </c>
       <c r="K338" s="4" t="n">
-        <v>448</v>
+        <v>202</v>
       </c>
       <c r="L338" s="4" t="n">
         <v>0</v>
@@ -25337,247 +25276,171 @@
       <c r="V338" s="4" t="n"/>
     </row>
     <row r="339">
-      <c r="A339" s="3" t="inlineStr">
-        <is>
-          <t>Формирователь десны</t>
-        </is>
-      </c>
-      <c r="B339" s="3" t="inlineStr">
-        <is>
-          <t>Аналог оригинала</t>
-        </is>
-      </c>
-      <c r="C339" s="3" t="inlineStr">
-        <is>
-          <t>Xive</t>
-        </is>
-      </c>
-      <c r="D339" s="3" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="E339" s="15" t="inlineStr">
-        <is>
-          <t>33285 Формирователь десны LM (копия оригинала) Xive 5.5 D=5.5 H=3 (арт. 45-1463) V.1</t>
-        </is>
-      </c>
-      <c r="F339" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G339" s="16" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H339" s="16" t="inlineStr">
+      <c r="A339" s="7" t="n"/>
+      <c r="B339" s="7" t="n"/>
+      <c r="C339" s="7" t="n"/>
+      <c r="D339" s="7" t="n"/>
+      <c r="E339" s="7" t="n"/>
+      <c r="F339" s="7" t="n"/>
+      <c r="G339" s="7" t="n"/>
+      <c r="H339" s="7" t="n"/>
+      <c r="I339" s="7" t="n"/>
+      <c r="J339" s="7" t="n"/>
+      <c r="K339" s="7" t="n"/>
+      <c r="L339" s="7" t="n"/>
+      <c r="M339" s="7" t="n"/>
+      <c r="N339" s="7" t="n"/>
+      <c r="O339" s="7" t="n"/>
+      <c r="P339" s="7" t="n"/>
+      <c r="Q339" s="7" t="n"/>
+      <c r="R339" s="7" t="n"/>
+      <c r="S339" s="7" t="n"/>
+      <c r="T339" s="8" t="n"/>
+      <c r="U339" s="8" t="n"/>
+      <c r="V339" s="7" t="n"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="3" t="inlineStr">
+        <is>
+          <t>Защитный колпачок</t>
+        </is>
+      </c>
+      <c r="B340" s="3" t="inlineStr">
+        <is>
+          <t>Lenmiriot Multi-Unit</t>
+        </is>
+      </c>
+      <c r="C340" s="3" t="inlineStr">
+        <is>
+          <t>LENMIRIOT Multi-Unit</t>
+        </is>
+      </c>
+      <c r="D340" s="3" t="inlineStr">
+        <is>
+          <t>(отв.Dentium/Mis/MisC1/Astra/Adin RS)</t>
+        </is>
+      </c>
+      <c r="E340" s="3" t="inlineStr">
+        <is>
+          <t>35986 Защитный колпачок LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=4.3 V.1</t>
+        </is>
+      </c>
+      <c r="F340" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G340" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H340" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I339" s="17" t="n">
-        <v>292</v>
-      </c>
-      <c r="J339" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K339" s="4" t="n">
-        <v>202</v>
-      </c>
-      <c r="L339" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M339" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N339" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O339" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P339" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q339" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R339" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S339" s="5" t="inlineStr"/>
-      <c r="T339" s="6" t="n"/>
-      <c r="U339" s="6" t="n"/>
-      <c r="V339" s="4" t="n"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="7" t="n"/>
-      <c r="B340" s="7" t="n"/>
-      <c r="C340" s="7" t="n"/>
-      <c r="D340" s="7" t="n"/>
-      <c r="E340" s="7" t="n"/>
-      <c r="F340" s="7" t="n"/>
-      <c r="G340" s="7" t="n"/>
-      <c r="H340" s="7" t="n"/>
-      <c r="I340" s="7" t="n"/>
-      <c r="J340" s="7" t="n"/>
-      <c r="K340" s="7" t="n"/>
-      <c r="L340" s="7" t="n"/>
-      <c r="M340" s="7" t="n"/>
-      <c r="N340" s="7" t="n"/>
-      <c r="O340" s="7" t="n"/>
-      <c r="P340" s="7" t="n"/>
-      <c r="Q340" s="7" t="n"/>
-      <c r="R340" s="7" t="n"/>
-      <c r="S340" s="7" t="n"/>
-      <c r="T340" s="8" t="n"/>
-      <c r="U340" s="8" t="n"/>
-      <c r="V340" s="7" t="n"/>
+      <c r="I340" s="4" t="n">
+        <v>2006</v>
+      </c>
+      <c r="J340" s="4" t="n">
+        <v>372</v>
+      </c>
+      <c r="K340" s="4" t="n">
+        <v>1214</v>
+      </c>
+      <c r="L340" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M340" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="N340" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="O340" s="4" t="n">
+        <v>309</v>
+      </c>
+      <c r="P340" s="4" t="n">
+        <v>481</v>
+      </c>
+      <c r="Q340" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="R340" s="4" t="n">
+        <v>159</v>
+      </c>
+      <c r="S340" s="5" t="inlineStr"/>
+      <c r="T340" s="6" t="n"/>
+      <c r="U340" s="6" t="n"/>
+      <c r="V340" s="4" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="341">
-      <c r="A341" s="3" t="inlineStr">
-        <is>
-          <t>Защитный колпачок</t>
-        </is>
-      </c>
-      <c r="B341" s="3" t="inlineStr">
-        <is>
-          <t>Lenmiriot Multi-Unit</t>
-        </is>
-      </c>
-      <c r="C341" s="3" t="inlineStr">
-        <is>
-          <t>LENMIRIOT Multi-Unit</t>
-        </is>
-      </c>
-      <c r="D341" s="3" t="inlineStr">
-        <is>
-          <t>(отв.Dentium/Mis/Astra/Adin RS)</t>
-        </is>
-      </c>
-      <c r="E341" s="3" t="inlineStr">
-        <is>
-          <t>35986 Защитный колпачок LM (собств. разр.) LENMIRIOT Multi-Unit D=4.8 L=4.3 V.1</t>
-        </is>
-      </c>
-      <c r="F341" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G341" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H341" s="3" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I341" s="4" t="n">
-        <v>2145</v>
-      </c>
-      <c r="J341" s="4" t="n">
-        <v>313</v>
-      </c>
-      <c r="K341" s="4" t="n">
-        <v>1404</v>
-      </c>
-      <c r="L341" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M341" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="N341" s="4" t="n">
-        <v>78</v>
-      </c>
-      <c r="O341" s="4" t="n">
-        <v>267</v>
-      </c>
-      <c r="P341" s="4" t="n">
-        <v>472</v>
-      </c>
-      <c r="Q341" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="R341" s="4" t="n">
-        <v>138</v>
-      </c>
-      <c r="S341" s="5" t="inlineStr"/>
-      <c r="T341" s="6" t="n"/>
-      <c r="U341" s="6" t="n"/>
-      <c r="V341" s="4" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="2" t="n"/>
-      <c r="B342" s="2" t="n"/>
-      <c r="C342" s="2" t="n"/>
-      <c r="D342" s="2" t="n"/>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="A341" s="2" t="n"/>
+      <c r="B341" s="2" t="n"/>
+      <c r="C341" s="2" t="n"/>
+      <c r="D341" s="2" t="n"/>
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="F342" s="2" t="n"/>
-      <c r="G342" s="2" t="n"/>
-      <c r="H342" s="2" t="n"/>
-      <c r="I342" s="30">
-        <f>SUM(I7:I341)</f>
+      <c r="F341" s="2" t="n"/>
+      <c r="G341" s="2" t="n"/>
+      <c r="H341" s="2" t="n"/>
+      <c r="I341" s="31">
+        <f>SUM(I7:I340)</f>
         <v/>
       </c>
-      <c r="J342" s="30">
-        <f>SUM(J7:J341)</f>
+      <c r="J341" s="31">
+        <f>SUM(J7:J340)</f>
         <v/>
       </c>
-      <c r="K342" s="30">
-        <f>SUM(K7:K341)</f>
+      <c r="K341" s="31">
+        <f>SUM(K7:K340)</f>
         <v/>
       </c>
-      <c r="L342" s="30">
-        <f>SUM(L7:L341)</f>
+      <c r="L341" s="31">
+        <f>SUM(L7:L340)</f>
         <v/>
       </c>
-      <c r="M342" s="30">
-        <f>SUM(M7:M341)</f>
+      <c r="M341" s="31">
+        <f>SUM(M7:M340)</f>
         <v/>
       </c>
-      <c r="N342" s="30">
-        <f>SUM(N7:N341)</f>
+      <c r="N341" s="31">
+        <f>SUM(N7:N340)</f>
         <v/>
       </c>
-      <c r="O342" s="30">
-        <f>SUM(O7:O341)</f>
+      <c r="O341" s="31">
+        <f>SUM(O7:O340)</f>
         <v/>
       </c>
-      <c r="P342" s="30">
-        <f>SUM(P7:P341)</f>
+      <c r="P341" s="31">
+        <f>SUM(P7:P340)</f>
         <v/>
       </c>
-      <c r="Q342" s="30">
-        <f>SUM(Q7:Q341)</f>
+      <c r="Q341" s="31">
+        <f>SUM(Q7:Q340)</f>
         <v/>
       </c>
-      <c r="R342" s="30">
-        <f>SUM(R7:R341)</f>
+      <c r="R341" s="31">
+        <f>SUM(R7:R340)</f>
         <v/>
       </c>
-      <c r="S342" s="2" t="n"/>
-      <c r="T342" s="30">
-        <f>SUM(T7:T341)</f>
+      <c r="S341" s="2" t="n"/>
+      <c r="T341" s="31">
+        <f>SUM(T7:T340)</f>
         <v/>
       </c>
-      <c r="U342" s="30">
-        <f>SUM(U7:U341)</f>
+      <c r="U341" s="31">
+        <f>SUM(U7:U340)</f>
         <v/>
       </c>
-      <c r="V342" s="30">
-        <f>SUM(V7:V341)</f>
+      <c r="V341" s="31">
+        <f>SUM(V7:V340)</f>
         <v/>
       </c>
     </row>
